--- a/5/5 efekt halla.xlsx
+++ b/5/5 efekt halla.xlsx
@@ -5,17 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A410939C-BE0B-42B1-B32C-1E9D60D6EBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3064AD0D-F3CD-4BB4-B6AB-F5B0251C0ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1875" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="zad" sheetId="2" r:id="rId1"/>
-    <sheet name="Pomiary" sheetId="1" r:id="rId2"/>
+    <sheet name="regr = to co z excela" sheetId="5" r:id="rId1"/>
+    <sheet name="Zadania" sheetId="4" r:id="rId2"/>
+    <sheet name="Pomiary" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Zadania!$C$3:$C$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Zadania!$D$3:$D$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Zadania!$E$3:$E$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Zadania!$F$3:$F$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Zadania!$G$3:$G$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,30 +44,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
   <si>
     <t>Uy, mV</t>
   </si>
@@ -111,15 +97,78 @@
   <si>
     <t>Niepewnosc</t>
   </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Niepewność</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>u(a)</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>u(b)</t>
+  </si>
+  <si>
+    <t>xa</t>
+  </si>
+  <si>
+    <t>xb</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>yb</t>
+  </si>
+  <si>
+    <t>a:</t>
+  </si>
+  <si>
+    <t>b:</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Regresja dla I = 0,5A</t>
+  </si>
+  <si>
+    <t>Regresja dla I = 1A</t>
+  </si>
+  <si>
+    <t>Regresja dla I = 2A</t>
+  </si>
+  <si>
+    <t>Regresja dla I = 3A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -181,6 +230,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -309,7 +362,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>zad!$C$3:$C$15</c:f>
+              <c:f>'regr = to co z excela'!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -357,27 +410,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>zad!$D$3:$D$15</c:f>
+              <c:f>'regr = to co z excela'!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.69999999999999973</c:v>
+                  <c:v>-0.69999999999999973</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>-0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29999999999999982</c:v>
+                  <c:v>-0.29999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20000000000000018</c:v>
+                  <c:v>-0.20000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9999999999999978E-2</c:v>
+                  <c:v>-9.9999999999999978E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -386,19 +439,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.30000000000000004</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.39999999999999991</c:v>
+                  <c:v>0.39999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.60000000000000009</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.69999999999999973</c:v>
+                  <c:v>0.69999999999999973</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.79999999999999982</c:v>
+                  <c:v>0.79999999999999982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -406,7 +459,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F311-4F99-A81C-3FA7B420512F}"/>
+              <c16:uniqueId val="{00000000-3B5B-4246-A0B9-F571C05C933A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -440,7 +493,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>zad!$C$3:$C$15</c:f>
+              <c:f>'regr = to co z excela'!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -488,48 +541,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>zad!$E$3:$E$15</c:f>
+              <c:f>'regr = to co z excela'!$E$3:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>-1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>-0.79999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>-0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.7</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.0000000000000002</c:v>
+                  <c:v>1.0000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1999999999999997</c:v>
+                  <c:v>1.1999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.4</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,7 +590,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F311-4F99-A81C-3FA7B420512F}"/>
+              <c16:uniqueId val="{00000001-3B5B-4246-A0B9-F571C05C933A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -571,7 +624,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>zad!$C$3:$C$15</c:f>
+              <c:f>'regr = to co z excela'!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -619,48 +672,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>zad!$F$3:$F$15</c:f>
+              <c:f>'regr = to co z excela'!$F$3:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.9</c:v>
+                  <c:v>-2.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>-2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4999999999999998</c:v>
+                  <c:v>-1.4999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.4</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.9</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,7 +721,1206 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F311-4F99-A81C-3FA7B420512F}"/>
+              <c16:uniqueId val="{00000002-3B5B-4246-A0B9-F571C05C933A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'regr = to co z excela'!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'regr = to co z excela'!$G$3:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3B5B-4246-A0B9-F571C05C933A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="983263504"/>
+        <c:axId val="923293984"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Regr 3A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'regr = to co z excela'!$N$30:$N$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'regr = to co z excela'!$O$30:$O$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-4.1516483516483511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.8178571428571422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4840659340659332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1502747252747247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8164835164835158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.4826923076923069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1489010989010984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.8151098901098894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4813186813186807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.147527472527472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.81373626373626318</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.47994505494505441</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.14615384615384563</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18763736263736314</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52142857142857191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85521978021978073</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1890109890109894</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5228021978021982</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8565934065934071</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1903846153846156</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5241758241758245</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8579670329670335</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.191758241758242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5255494505494509</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8593406593406598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3B5B-4246-A0B9-F571C05C933A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="635182760"/>
+        <c:axId val="635184560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="983263504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923293984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="923293984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983263504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="635184560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635182760"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="635182760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635184560"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Zależność</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> napięcia Uh w funkcji natężenia prądu próbki Is</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0,5A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zadania!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zadania!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-0.69999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.29999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.20000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79999999999999982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD07-4BA1-9FCB-02B7DFBC537A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zadania!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zadania!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.79999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD07-4BA1-9FCB-02B7DFBC537A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zadania!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zadania!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD07-4BA1-9FCB-02B7DFBC537A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -702,7 +1954,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>zad!$C$3:$C$15</c:f>
+              <c:f>Zadania!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -750,48 +2002,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>zad!$G$3:$G$15</c:f>
+              <c:f>Zadania!$G$3:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.2</c:v>
+                  <c:v>-4.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>-3.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9</c:v>
+                  <c:v>-2.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>-2.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4000000000000001</c:v>
+                  <c:v>-1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.1000000000000001</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.8</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.1999999999999997</c:v>
+                  <c:v>3.1999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.9</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,7 +2051,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F311-4F99-A81C-3FA7B420512F}"/>
+              <c16:uniqueId val="{00000003-DD07-4BA1-9FCB-02B7DFBC537A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1082,6 +2334,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1637,31 +2929,592 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>518535</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>108954</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419142</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>524121</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>15548</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E72484-1AAD-5518-E880-5044A80B2B5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC506802-5441-4EB3-A0D8-D148323C8D40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419143</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582099</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>148071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FB411D-A3E7-4C5E-BC8E-1092176F99CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1940,20 +3793,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BE558A-2C1F-4FCF-BFDC-1E9FA0281CBB}">
-  <dimension ref="B1:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986FCCA-9D6E-468B-8DCF-200BE53BE065}">
+  <dimension ref="B1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="D40" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
@@ -2000,8 +3854,12 @@
         <v>16</v>
       </c>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
@@ -2013,22 +3871,22 @@
         <v>-6</v>
       </c>
       <c r="D3" s="1">
-        <v>0.69999999999999973</v>
+        <v>-0.69999999999999973</v>
       </c>
       <c r="E3" s="1">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="F3" s="1">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="G3" s="1">
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="H3" s="1">
-        <v>4.3999999999999995</v>
+        <v>-4.3999999999999995</v>
       </c>
       <c r="I3" s="1">
-        <v>4.7</v>
+        <v>-4.7</v>
       </c>
       <c r="J3" s="4"/>
       <c r="L3" s="1">
@@ -2037,13 +3895,18 @@
       <c r="M3" s="1">
         <v>-6</v>
       </c>
-      <c r="N3" s="1" t="e" cm="1">
-        <f t="array" ref="N3">0.005*wyn + 3*E21</f>
-        <v>#NAME?</v>
+      <c r="N3" s="1">
+        <f>0.005*ABS(M3) + 3*0.01</f>
+        <v>0.06</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>0.02*P3+10*(10^(-3))</f>
+        <v>0.02</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
@@ -2055,22 +3918,22 @@
         <v>-5</v>
       </c>
       <c r="D4" s="1">
-        <v>0.60000000000000009</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="E4" s="1">
-        <v>1.2000000000000002</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="F4" s="1">
-        <v>2.4000000000000004</v>
+        <v>-2.4000000000000004</v>
       </c>
       <c r="G4" s="1">
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="H4" s="1">
-        <v>3.6</v>
+        <v>-3.6</v>
       </c>
       <c r="I4" s="1">
-        <v>3.9</v>
+        <v>-3.9</v>
       </c>
       <c r="J4" s="1"/>
       <c r="L4" s="1">
@@ -2079,10 +3942,18 @@
       <c r="M4" s="1">
         <v>-5</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N15" si="0">0.005*ABS(M4) + 3*0.01</f>
+        <v>5.5E-2</v>
+      </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q6" si="1">0.02*P4+10*(10^(-3))</f>
+        <v>0.03</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
@@ -2094,22 +3965,22 @@
         <v>-4</v>
       </c>
       <c r="D5" s="1">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" s="1">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G5" s="1">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="H5" s="1">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="I5" s="1">
-        <v>3.1</v>
+        <v>-3.1</v>
       </c>
       <c r="J5" s="1"/>
       <c r="L5" s="1">
@@ -2118,10 +3989,18 @@
       <c r="M5" s="1">
         <v>-4</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
@@ -2133,22 +4012,22 @@
         <v>-3</v>
       </c>
       <c r="D6" s="1">
-        <v>0.29999999999999982</v>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="E6" s="1">
-        <v>0.79999999999999982</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="F6" s="1">
-        <v>1.4999999999999998</v>
+        <v>-1.4999999999999998</v>
       </c>
       <c r="G6" s="1">
-        <v>2.0999999999999996</v>
+        <v>-2.0999999999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>2.1999999999999997</v>
+        <v>-2.1999999999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>2.2999999999999998</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="J6" s="1"/>
       <c r="L6" s="1">
@@ -2157,10 +4036,18 @@
       <c r="M6" s="1">
         <v>-3</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
@@ -2172,22 +4059,22 @@
         <v>-2</v>
       </c>
       <c r="D7" s="1">
-        <v>0.20000000000000018</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="E7" s="1">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="1">
-        <v>1.4000000000000001</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I7" s="1">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
       <c r="J7" s="1"/>
       <c r="L7" s="1">
@@ -2196,7 +4083,10 @@
       <c r="M7" s="1">
         <v>-2</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -2211,22 +4101,22 @@
         <v>-1</v>
       </c>
       <c r="D8" s="1">
-        <v>9.9999999999999978E-2</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>0.30000000000000004</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="F8" s="1">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="G8" s="1">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="H8" s="1">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="I8" s="1">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="J8" s="1"/>
       <c r="L8" s="1">
@@ -2235,7 +4125,10 @@
       <c r="M8" s="1">
         <v>-1</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4999999999999996E-2</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -2274,7 +4167,10 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2292,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="1">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="1">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="I10" s="1">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="1"/>
       <c r="L10" s="1">
@@ -2313,7 +4209,10 @@
       <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4999999999999996E-2</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2328,22 +4227,22 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>-0.30000000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="E11" s="1">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="G11" s="1">
-        <v>-1.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>-1.2000000000000002</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-1.4</v>
+        <v>1.4</v>
       </c>
       <c r="J11" s="1"/>
       <c r="L11" s="1">
@@ -2352,7 +4251,10 @@
       <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2367,22 +4269,22 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.39999999999999991</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="F12" s="1">
-        <v>-1.4</v>
+        <v>1.4</v>
       </c>
       <c r="G12" s="1">
-        <v>-1.8</v>
+        <v>1.8</v>
       </c>
       <c r="H12" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>-2.2000000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J12" s="1"/>
       <c r="L12" s="1">
@@ -2391,7 +4293,10 @@
       <c r="M12" s="1">
         <v>3</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2406,22 +4311,22 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>-0.60000000000000009</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="E13" s="1">
-        <v>-1.0000000000000002</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="F13" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="H13" s="1">
-        <v>-2.8000000000000003</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-3.1</v>
+        <v>3.1</v>
       </c>
       <c r="J13" s="1"/>
       <c r="L13" s="1">
@@ -2430,7 +4335,10 @@
       <c r="M13" s="1">
         <v>4</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2445,22 +4353,22 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>-0.69999999999999973</v>
+        <v>0.69999999999999973</v>
       </c>
       <c r="E14" s="1">
-        <v>-1.1999999999999997</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="F14" s="1">
-        <v>-2.4</v>
+        <v>2.4</v>
       </c>
       <c r="G14" s="1">
-        <v>-3.1999999999999997</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="I14" s="1">
-        <v>-3.9</v>
+        <v>3.9</v>
       </c>
       <c r="J14" s="1"/>
       <c r="L14" s="1">
@@ -2469,7 +4377,10 @@
       <c r="M14" s="1">
         <v>5</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2484,22 +4395,22 @@
         <v>6</v>
       </c>
       <c r="D15" s="1">
-        <v>-0.79999999999999982</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="E15" s="1">
-        <v>-1.4</v>
+        <v>1.4</v>
       </c>
       <c r="F15" s="1">
-        <v>-2.9</v>
+        <v>2.9</v>
       </c>
       <c r="G15" s="1">
-        <v>-3.9</v>
+        <v>3.9</v>
       </c>
       <c r="H15" s="1">
-        <v>-4.3</v>
+        <v>4.3</v>
       </c>
       <c r="I15" s="1">
-        <v>-4.8</v>
+        <v>4.8</v>
       </c>
       <c r="J15" s="1"/>
       <c r="L15" s="1">
@@ -2508,38 +4419,379 @@
       <c r="M15" s="1">
         <v>6</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <f t="array" ref="N18:O20">LINEST(G$3:G$15,$C$3:$C$15,TRUE,TRUE)</f>
+        <v>0.66758241758241765</v>
+      </c>
+      <c r="O18" s="1">
+        <v>-0.14615384615384608</v>
+      </c>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="1">
+        <v>6.3625070943341593E-3</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2.3806321667917015E-2</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.99900182716383568</v>
+      </c>
+      <c r="O20" s="1">
+        <v>8.5834913453864195E-2</v>
+      </c>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>15</v>
       </c>
       <c r="E21">
         <f>10^(-6)*10</f>
         <v>9.9999999999999991E-6</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="1">
+        <f>MIN(C3:C15)</f>
+        <v>-6</v>
+      </c>
+      <c r="O22" s="1">
+        <f>N22*N$18+O$18</f>
+        <v>-4.1516483516483511</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="1">
+        <f>MAX(C3:C15)</f>
+        <v>6</v>
+      </c>
+      <c r="O23" s="1">
+        <f>N23*N$18+O$18</f>
+        <v>3.8593406593406594</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
+        <f>(O22-O23)/(N22-N23)</f>
+        <v>0.66758241758241754</v>
+      </c>
+      <c r="O25" s="1">
+        <f>O22-(O22-O23)/(N22-N23)*N22</f>
+        <v>-0.14615384615384563</v>
+      </c>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>-6</v>
+      </c>
+      <c r="O30">
+        <f>$N$25*N30+$O$25</f>
+        <v>-4.1516483516483511</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>-5.5</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:O54" si="2">$N$25*N31+$O$25</f>
+        <v>-3.8178571428571422</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>-5</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>-3.4840659340659332</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>-4.5</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>-3.1502747252747247</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>-4</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>-2.8164835164835158</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>-3.5</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>-2.4826923076923069</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>-3</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>-2.1489010989010984</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>-2.5</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>-1.8151098901098894</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>-2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>-1.4813186813186807</v>
+      </c>
+    </row>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>-1.5</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>-1.147527472527472</v>
+      </c>
+    </row>
+    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>-1</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>-0.81373626373626318</v>
+      </c>
+    </row>
+    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>-0.5</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>-0.47994505494505441</v>
+      </c>
+    </row>
+    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>-0.14615384615384563</v>
+      </c>
+    </row>
+    <row r="43" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>0.5</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>0.18763736263736314</v>
+      </c>
+    </row>
+    <row r="44" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>0.52142857142857191</v>
+      </c>
+    </row>
+    <row r="45" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>1.5</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>0.85521978021978073</v>
+      </c>
+    </row>
+    <row r="46" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <f>$N$25*N46+$O$25</f>
+        <v>1.1890109890109894</v>
+      </c>
+    </row>
+    <row r="47" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>2.5</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="2"/>
+        <v>1.5228021978021982</v>
+      </c>
+    </row>
+    <row r="48" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>1.8565934065934071</v>
+      </c>
+    </row>
+    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>3.5</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="2"/>
+        <v>2.1903846153846156</v>
+      </c>
+    </row>
+    <row r="50" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="2"/>
+        <v>2.5241758241758245</v>
+      </c>
+    </row>
+    <row r="51" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>4.5</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="2"/>
+        <v>2.8579670329670335</v>
+      </c>
+    </row>
+    <row r="52" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>3.191758241758242</v>
+      </c>
+    </row>
+    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>5.5</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="2"/>
+        <v>3.5255494505494509</v>
+      </c>
+    </row>
+    <row r="54" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>6</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="2"/>
+        <v>3.8593406593406598</v>
       </c>
     </row>
   </sheetData>
@@ -2552,11 +4804,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB54B77-5B7A-4E96-B022-EA93CBC2B5C8}">
+  <dimension ref="B1:AB27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.69999999999999973</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-2.9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-4.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-4.3999999999999995</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-4.7</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-6</v>
+      </c>
+      <c r="N3" s="1">
+        <f>0.005*ABS(M3) + 3*0.01</f>
+        <v>0.06</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>0.02*P3+10*(10^(-3))</f>
+        <v>0.02</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-2.4000000000000004</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-3.6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-3.9</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-5</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N15" si="0">0.005*ABS(M4) + 3*0.01</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q6" si="1">0.02*P4+10*(10^(-3))</f>
+        <v>0.03</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-2.9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-3.1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-4</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-1.4999999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-2.0999999999999996</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-2.1999999999999997</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1.4000000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-1.6</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="1">
+        <v>8</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1">
+        <v>13</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="6">
+        <f t="array" ref="N20:O22">LINEST(D$3:D$15,$C$3:$C$15,TRUE,TRUE)</f>
+        <v>0.12692307692307692</v>
+      </c>
+      <c r="O20" s="6">
+        <v>3.0769230769230764E-2</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="6">
+        <f t="array" ref="R20:S22">LINEST(E$3:E$15,$C$3:$C$15,TRUE,TRUE)</f>
+        <v>0.24560439560439568</v>
+      </c>
+      <c r="S20" s="6">
+        <v>-3.8461538461538464E-2</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="6">
+        <f t="array" ref="V20:W22">LINEST(F$3:F$15,$C$3:$C$15,TRUE,TRUE)</f>
+        <v>0.48241758241758248</v>
+      </c>
+      <c r="W20" s="6">
+        <v>-4.6153846153846198E-2</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="6">
+        <f t="array" ref="Z20:AA22">LINEST(G$3:G$15,$C$3:$C$15,TRUE,TRUE)</f>
+        <v>0.66758241758241765</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>-0.14615384615384608</v>
+      </c>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <f>10^(-6)*10</f>
+        <v>9.9999999999999991E-6</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="6">
+        <v>4.2269076919160906E-3</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1.5815640388669432E-2</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="6">
+        <v>4.0137592557365192E-3</v>
+      </c>
+      <c r="S21" s="6">
+        <v>1.5018111967958823E-2</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="6">
+        <v>6.9263268777873853E-3</v>
+      </c>
+      <c r="W21" s="6">
+        <v>2.5915942125484061E-2</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>6.3625070943341593E-3</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>2.3806321667917015E-2</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.98794712286158626</v>
+      </c>
+      <c r="O22" s="6">
+        <v>5.7024102375646854E-2</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0.99707079981636371</v>
+      </c>
+      <c r="S22" s="6">
+        <v>5.4148572761134939E-2</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="6">
+        <v>0.9977376034127502</v>
+      </c>
+      <c r="W22" s="6">
+        <v>9.344125818538998E-2</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>0.99900182716383568</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>8.5834913453864195E-2</v>
+      </c>
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="1">
+        <v>-6</v>
+      </c>
+      <c r="O24" s="6">
+        <f>N24*N$20+O$20</f>
+        <v>-0.73076923076923073</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="1">
+        <v>-6</v>
+      </c>
+      <c r="S24" s="6">
+        <f>R24*R$20+S$20</f>
+        <v>-1.5120879120879127</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24" s="1">
+        <v>-6</v>
+      </c>
+      <c r="W24" s="6">
+        <f>V24*V$20+W$20</f>
+        <v>-2.9406593406593409</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>-6</v>
+      </c>
+      <c r="AA24" s="6">
+        <f>Z24*Z$20+AA$20</f>
+        <v>-4.1516483516483511</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="1">
+        <v>6</v>
+      </c>
+      <c r="O25" s="6">
+        <f>N25*N$20+O$20</f>
+        <v>0.79230769230769227</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25" s="1">
+        <v>6</v>
+      </c>
+      <c r="S25" s="6">
+        <f>R25*R$20+S$20</f>
+        <v>1.4351648351648356</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V25" s="1">
+        <v>6</v>
+      </c>
+      <c r="W25" s="6">
+        <f>V25*V$20+W$20</f>
+        <v>2.8483516483516489</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="6">
+        <f>Z25*Z$20+AA$20</f>
+        <v>3.8593406593406594</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M27" s="1"/>
+      <c r="N27" s="6">
+        <f>(O24-O25)/(N24-N25)</f>
+        <v>0.12692307692307692</v>
+      </c>
+      <c r="O27" s="6">
+        <f>O24-(O24-O25)/(N24-N25)*N24</f>
+        <v>3.0769230769230771E-2</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="6">
+        <f>(S24-S25)/(R24-R25)</f>
+        <v>0.2456043956043957</v>
+      </c>
+      <c r="S27" s="6">
+        <f>S24-(S24-S25)/(R24-R25)*R24</f>
+        <v>-3.8461538461538547E-2</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="6">
+        <f>(W24-W25)/(V24-V25)</f>
+        <v>0.48241758241758248</v>
+      </c>
+      <c r="W27" s="6">
+        <f>W24-(W24-W25)/(V24-V25)*V24</f>
+        <v>-4.615384615384599E-2</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="6">
+        <f>(AA24-AA25)/(Z24-Z25)</f>
+        <v>0.66758241758241754</v>
+      </c>
+      <c r="AA27" s="6">
+        <f>AA24-(AA24-AA25)/(Z24-Z25)*Z24</f>
+        <v>-0.14615384615384563</v>
+      </c>
+      <c r="AB27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S18"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N3" sqref="N3:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,28 +5982,28 @@
         <v>-6</v>
       </c>
       <c r="N3" s="1">
-        <f>E3-$D3</f>
-        <v>0.69999999999999973</v>
+        <f>$D3-E3</f>
+        <v>-0.69999999999999973</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:S15" si="0">F3-$D3</f>
-        <v>1.5</v>
+        <f t="shared" ref="O3:S15" si="0">$D3-F3</f>
+        <v>-1.5</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>-4.2</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="0"/>
-        <v>4.3999999999999995</v>
+        <v>-4.3999999999999995</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" si="0"/>
-        <v>4.7</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -2727,28 +6041,28 @@
         <v>-5</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N15" si="1">E4-$D4</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" ref="N4:N15" si="1">$D4-E4</f>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>-2.4000000000000004</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>-3.5</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>-3.6</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="0"/>
-        <v>3.9</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -2787,27 +6101,27 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -2846,27 +6160,27 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
-        <v>0.29999999999999982</v>
+        <v>-0.29999999999999982</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="0"/>
-        <v>0.79999999999999982</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="0"/>
-        <v>1.4999999999999998</v>
+        <v>-1.4999999999999998</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>2.0999999999999996</v>
+        <v>-2.0999999999999996</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="0"/>
-        <v>2.1999999999999997</v>
+        <v>-2.1999999999999997</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -2905,27 +6219,27 @@
       </c>
       <c r="N7" s="1">
         <f t="shared" si="1"/>
-        <v>0.20000000000000018</v>
+        <v>-0.20000000000000018</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
+        <v>-1.4000000000000001</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -2964,27 +6278,27 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" si="1"/>
-        <v>9.9999999999999978E-2</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
@@ -3086,23 +6400,23 @@
       </c>
       <c r="O10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -3141,27 +6455,27 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="1"/>
-        <v>-0.30000000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="0"/>
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2000000000000002</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -3200,27 +6514,27 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" si="1"/>
-        <v>-0.39999999999999991</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="0"/>
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="0"/>
-        <v>-1.8</v>
+        <v>1.8</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="0"/>
-        <v>-2.2000000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -3259,27 +6573,27 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="1"/>
-        <v>-0.60000000000000009</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0000000000000002</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="0"/>
-        <v>-2.8000000000000003</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="0"/>
-        <v>-3.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -3318,27 +6632,27 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="1"/>
-        <v>-0.69999999999999973</v>
+        <v>0.69999999999999973</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1999999999999997</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="0"/>
-        <v>-2.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="0"/>
-        <v>-3.1999999999999997</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="0"/>
-        <v>-3.9</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -3377,27 +6691,27 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="1"/>
-        <v>-0.79999999999999982</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4</v>
+        <v>1.4</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="0"/>
-        <v>-2.9</v>
+        <v>2.9</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="0"/>
-        <v>-3.9</v>
+        <v>3.9</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="0"/>
-        <v>-4.3</v>
+        <v>4.3</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="0"/>
-        <v>-4.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">

--- a/5/5 efekt halla.xlsx
+++ b/5/5 efekt halla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3064AD0D-F3CD-4BB4-B6AB-F5B0251C0ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D4EA30-C565-48ED-9E66-BC2B55108333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,6 @@
     <sheet name="Zadania" sheetId="4" r:id="rId2"/>
     <sheet name="Pomiary" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Zadania!$C$3:$C$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Zadania!$D$3:$D$15</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Zadania!$E$3:$E$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Zadania!$F$3:$F$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Zadania!$G$3:$G$15</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="36">
   <si>
     <t>Uy, mV</t>
   </si>
@@ -159,6 +152,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -218,23 +214,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1548,9 +1562,7 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -1559,6 +1571,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="2.0000000000000004E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0000000000000002E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Zadania!$C$3:$C$15</c:f>
@@ -1679,9 +1746,7 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
@@ -1690,6 +1755,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="2.0000000000000004E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0000000000000002E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Zadania!$C$3:$C$15</c:f>
@@ -1810,9 +1930,7 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
@@ -1821,6 +1939,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="2.0000000000000004E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0000000000000002E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Zadania!$C$3:$C$15</c:f>
@@ -1941,9 +2114,7 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
@@ -1952,6 +2123,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="3.0000000000000006E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0000000000000002E-2"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Zadania!$C$3:$C$15</c:f>
@@ -2070,6 +2296,8 @@
         <c:axId val="983263504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="-6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2088,6 +2316,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Is [mA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2155,13 +2408,16 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="923293984"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-6"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="923293984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="-4.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2180,6 +2436,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>h [mV]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2247,8 +2533,9 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="983263504"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-6"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2328,7 +2615,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3493,15 +3780,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419143</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50977</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>166106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>582099</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>148071</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3796,7 +4083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986FCCA-9D6E-468B-8DCF-200BE53BE065}">
   <dimension ref="B1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+    <sheetView topLeftCell="D49" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
@@ -3811,11 +4098,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -4807,8 +5094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB54B77-5B7A-4E96-B022-EA93CBC2B5C8}">
   <dimension ref="B1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4823,11 +5110,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -4845,16 +5132,12 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
         <v>2</v>
@@ -4891,33 +5174,29 @@
       <c r="F3" s="1">
         <v>-2.9</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="10">
         <v>-4.2</v>
       </c>
-      <c r="H3" s="1">
-        <v>-4.3999999999999995</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-4.7</v>
-      </c>
-      <c r="J3" s="4"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
       <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="1">
         <v>-6</v>
       </c>
-      <c r="N3" s="1">
-        <f>0.005*ABS(M3) + 3*0.01</f>
-        <v>0.06</v>
+      <c r="N3" s="8">
+        <f>(0.005*ABS(M3) + 3*0.01)/SQRT(3)</f>
+        <v>3.4641016151377546E-2</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="1">
-        <f>0.02*P3+10*(10^(-3))</f>
-        <v>0.02</v>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q6" si="0">(0.02*P3+10*(10^(-3)))/SQRT(3)</f>
+        <v>1.1547005383792516E-2</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -4938,33 +5217,29 @@
       <c r="F4" s="1">
         <v>-2.4000000000000004</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="10">
         <v>-3.5</v>
       </c>
-      <c r="H4" s="1">
-        <v>-3.6</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-3.9</v>
-      </c>
-      <c r="J4" s="1"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
       <c r="M4" s="1">
         <v>-5</v>
       </c>
-      <c r="N4" s="1">
-        <f t="shared" ref="N4:N15" si="0">0.005*ABS(M4) + 3*0.01</f>
-        <v>5.5E-2</v>
+      <c r="N4" s="8">
+        <f t="shared" ref="N4:N15" si="1">(0.005*ABS(M4) + 3*0.01)/SQRT(3)</f>
+        <v>3.1754264805429422E-2</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q6" si="1">0.02*P4+10*(10^(-3))</f>
-        <v>0.03</v>
+      <c r="Q4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7320508075688773E-2</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -4985,33 +5260,29 @@
       <c r="F5" s="1">
         <v>-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="10">
         <v>-2.9</v>
       </c>
-      <c r="H5" s="1">
-        <v>-3</v>
-      </c>
-      <c r="I5" s="1">
-        <v>-3.1</v>
-      </c>
-      <c r="J5" s="1"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="L5" s="1">
         <v>3</v>
       </c>
       <c r="M5" s="1">
         <v>-4</v>
       </c>
-      <c r="N5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+      <c r="N5" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8867513459481291E-2</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
         <v>2</v>
       </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
+      <c r="Q5" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481291E-2</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -5032,33 +5303,29 @@
       <c r="F6" s="1">
         <v>-1.4999999999999998</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="10">
         <v>-2.0999999999999996</v>
       </c>
-      <c r="H6" s="1">
-        <v>-2.1999999999999997</v>
-      </c>
-      <c r="I6" s="1">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="J6" s="1"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
       <c r="M6" s="1">
         <v>-3</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
+      <c r="N6" s="8">
+        <f t="shared" si="1"/>
+        <v>2.598076211353316E-2</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
         <v>3</v>
       </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="1"/>
-        <v>6.9999999999999993E-2</v>
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0414518843273801E-2</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -5079,25 +5346,21 @@
       <c r="F7" s="1">
         <v>-1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="10">
         <v>-1.4000000000000001</v>
       </c>
-      <c r="H7" s="1">
-        <v>-1.5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-1.6</v>
-      </c>
-      <c r="J7" s="1"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
       <c r="M7" s="1">
         <v>-2</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
+      <c r="N7" s="8">
+        <f t="shared" si="1"/>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -5121,25 +5384,21 @@
       <c r="F8" s="1">
         <v>-0.5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="10">
         <v>-0.7</v>
       </c>
-      <c r="H8" s="1">
-        <v>-0.7</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-0.8</v>
-      </c>
-      <c r="J8" s="1"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
       <c r="L8" s="1">
         <v>6</v>
       </c>
       <c r="M8" s="1">
         <v>-1</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.4999999999999996E-2</v>
+      <c r="N8" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0207259421636901E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -5163,25 +5422,21 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
       <c r="L9" s="1">
         <v>7</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
+      <c r="N9" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7320508075688773E-2</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -5205,25 +5460,21 @@
       <c r="F10" s="1">
         <v>0.2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="10">
         <v>0.4</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="1"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
       <c r="L10" s="1">
         <v>8</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.4999999999999996E-2</v>
+      <c r="N10" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0207259421636901E-2</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -5247,25 +5498,21 @@
       <c r="F11" s="1">
         <v>0.8</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H11" s="1">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="J11" s="1"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
       <c r="L11" s="1">
         <v>9</v>
       </c>
       <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="N11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
+      <c r="N11" s="8">
+        <f t="shared" si="1"/>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -5289,25 +5536,21 @@
       <c r="F12" s="1">
         <v>1.4</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="10">
         <v>1.8</v>
       </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="L12" s="1">
         <v>10</v>
       </c>
       <c r="M12" s="1">
         <v>3</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
+      <c r="N12" s="8">
+        <f t="shared" si="1"/>
+        <v>2.598076211353316E-2</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -5331,25 +5574,21 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="10">
         <v>2.5</v>
       </c>
-      <c r="H13" s="1">
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="I13" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="J13" s="1"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
       <c r="L13" s="1">
         <v>11</v>
       </c>
       <c r="M13" s="1">
         <v>4</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+      <c r="N13" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8867513459481291E-2</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -5373,25 +5612,21 @@
       <c r="F14" s="1">
         <v>2.4</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="10">
         <v>3.1999999999999997</v>
       </c>
-      <c r="H14" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="J14" s="1"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
       <c r="L14" s="1">
         <v>12</v>
       </c>
       <c r="M14" s="1">
         <v>5</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="0"/>
-        <v>5.5E-2</v>
+      <c r="N14" s="8">
+        <f t="shared" si="1"/>
+        <v>3.1754264805429422E-2</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -5415,25 +5650,21 @@
       <c r="F15" s="1">
         <v>2.9</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="10">
         <v>3.9</v>
       </c>
-      <c r="H15" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="I15" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="J15" s="1"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
       <c r="L15" s="1">
         <v>13</v>
       </c>
       <c r="M15" s="1">
         <v>6</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
+      <c r="N15" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4641016151377546E-2</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -5453,30 +5684,30 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7" t="s">
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7" t="s">
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7" t="s">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
     </row>
     <row r="19" spans="3:28" x14ac:dyDescent="0.25">
       <c r="M19" s="1"/>
@@ -5517,38 +5748,38 @@
         <v>14</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <f t="array" ref="N20:O22">LINEST(D$3:D$15,$C$3:$C$15,TRUE,TRUE)</f>
         <v>0.12692307692307692</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>3.0769230769230764E-2</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="6">
+      <c r="R20" s="5">
         <f t="array" ref="R20:S22">LINEST(E$3:E$15,$C$3:$C$15,TRUE,TRUE)</f>
         <v>0.24560439560439568</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="5">
         <v>-3.8461538461538464E-2</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="6">
+      <c r="V20" s="5">
         <f t="array" ref="V20:W22">LINEST(F$3:F$15,$C$3:$C$15,TRUE,TRUE)</f>
         <v>0.48241758241758248</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="5">
         <v>-4.6153846153846198E-2</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="6">
+      <c r="Z20" s="5">
         <f t="array" ref="Z20:AA22">LINEST(G$3:G$15,$C$3:$C$15,TRUE,TRUE)</f>
         <v>0.66758241758241765</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="5">
         <v>-0.14615384615384608</v>
       </c>
       <c r="AB20" s="1"/>
@@ -5564,10 +5795,10 @@
       <c r="M21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>4.2269076919160906E-3</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <v>1.5815640388669432E-2</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -5576,10 +5807,10 @@
       <c r="Q21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="5">
         <v>4.0137592557365192E-3</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="5">
         <v>1.5018111967958823E-2</v>
       </c>
       <c r="T21" s="1" t="s">
@@ -5588,10 +5819,10 @@
       <c r="U21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="5">
         <v>6.9263268777873853E-3</v>
       </c>
-      <c r="W21" s="6">
+      <c r="W21" s="5">
         <v>2.5915942125484061E-2</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -5600,10 +5831,10 @@
       <c r="Y21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="Z21" s="5">
         <v>6.3625070943341593E-3</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AA21" s="5">
         <v>2.3806321667917015E-2</v>
       </c>
       <c r="AB21" s="1" t="s">
@@ -5614,40 +5845,40 @@
       <c r="M22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>0.98794712286158626</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>5.7024102375646854E-2</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="5">
         <v>0.99707079981636371</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="5">
         <v>5.4148572761134939E-2</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="5">
         <v>0.9977376034127502</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="5">
         <v>9.344125818538998E-2</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="Z22" s="5">
         <v>0.99900182716383568</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="5">
         <v>8.5834913453864195E-2</v>
       </c>
       <c r="AB22" s="1"/>
@@ -5677,7 +5908,7 @@
       <c r="N24" s="1">
         <v>-6</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <f>N24*N$20+O$20</f>
         <v>-0.73076923076923073</v>
       </c>
@@ -5690,7 +5921,7 @@
       <c r="R24" s="1">
         <v>-6</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="5">
         <f>R24*R$20+S$20</f>
         <v>-1.5120879120879127</v>
       </c>
@@ -5703,7 +5934,7 @@
       <c r="V24" s="1">
         <v>-6</v>
       </c>
-      <c r="W24" s="6">
+      <c r="W24" s="5">
         <f>V24*V$20+W$20</f>
         <v>-2.9406593406593409</v>
       </c>
@@ -5716,7 +5947,7 @@
       <c r="Z24" s="1">
         <v>-6</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA24" s="5">
         <f>Z24*Z$20+AA$20</f>
         <v>-4.1516483516483511</v>
       </c>
@@ -5731,7 +5962,7 @@
       <c r="N25" s="1">
         <v>6</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <f>N25*N$20+O$20</f>
         <v>0.79230769230769227</v>
       </c>
@@ -5744,7 +5975,7 @@
       <c r="R25" s="1">
         <v>6</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="5">
         <f>R25*R$20+S$20</f>
         <v>1.4351648351648356</v>
       </c>
@@ -5757,7 +5988,7 @@
       <c r="V25" s="1">
         <v>6</v>
       </c>
-      <c r="W25" s="6">
+      <c r="W25" s="5">
         <f>V25*V$20+W$20</f>
         <v>2.8483516483516489</v>
       </c>
@@ -5770,7 +6001,7 @@
       <c r="Z25" s="1">
         <v>6</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AA25" s="5">
         <f>Z25*Z$20+AA$20</f>
         <v>3.8593406593406594</v>
       </c>
@@ -5783,7 +6014,7 @@
       <c r="N26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P26" s="1"/>
@@ -5791,7 +6022,7 @@
       <c r="R26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="S26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="T26" s="1"/>
@@ -5799,7 +6030,7 @@
       <c r="V26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W26" s="6" t="s">
+      <c r="W26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="X26" s="1"/>
@@ -5807,48 +6038,48 @@
       <c r="Z26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA26" s="6" t="s">
+      <c r="AA26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="3:28" x14ac:dyDescent="0.25">
       <c r="M27" s="1"/>
-      <c r="N27" s="6">
+      <c r="N27" s="5">
         <f>(O24-O25)/(N24-N25)</f>
         <v>0.12692307692307692</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="5">
         <f>O24-(O24-O25)/(N24-N25)*N24</f>
         <v>3.0769230769230771E-2</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="6">
+      <c r="R27" s="5">
         <f>(S24-S25)/(R24-R25)</f>
         <v>0.2456043956043957</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27" s="5">
         <f>S24-(S24-S25)/(R24-R25)*R24</f>
         <v>-3.8461538461538547E-2</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="6">
+      <c r="V27" s="5">
         <f>(W24-W25)/(V24-V25)</f>
         <v>0.48241758241758248</v>
       </c>
-      <c r="W27" s="6">
+      <c r="W27" s="5">
         <f>W24-(W24-W25)/(V24-V25)*V24</f>
         <v>-4.615384615384599E-2</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="6">
+      <c r="Z27" s="5">
         <f>(AA24-AA25)/(Z24-Z25)</f>
         <v>0.66758241758241754</v>
       </c>
-      <c r="AA27" s="6">
+      <c r="AA27" s="5">
         <f>AA24-(AA24-AA25)/(Z24-Z25)*Z24</f>
         <v>-0.14615384615384563</v>
       </c>
@@ -5882,13 +6113,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="L1" t="s">
         <v>1</v>
       </c>

--- a/5/5 efekt halla.xlsx
+++ b/5/5 efekt halla.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D4EA30-C565-48ED-9E66-BC2B55108333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC471C74-0C5B-43A2-BBA7-1BF465A21AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regr = to co z excela" sheetId="5" r:id="rId1"/>
     <sheet name="Zadania" sheetId="4" r:id="rId2"/>
-    <sheet name="Pomiary" sheetId="1" r:id="rId3"/>
+    <sheet name="temp" sheetId="6" r:id="rId3"/>
+    <sheet name="Pomiary" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="59">
   <si>
     <t>Uy, mV</t>
   </si>
@@ -147,15 +148,85 @@
   <si>
     <t>Regresja dla I = 3A</t>
   </si>
+  <si>
+    <t>0,1269(42)</t>
+  </si>
+  <si>
+    <t>0,2456(4)</t>
+  </si>
+  <si>
+    <t>0,4824(69)</t>
+  </si>
+  <si>
+    <t>0,6676(64)</t>
+  </si>
+  <si>
+    <t>I [A]</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Rh</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>0,500(12)</t>
+  </si>
+  <si>
+    <t>1,000(17)</t>
+  </si>
+  <si>
+    <t>2,000(29)</t>
+  </si>
+  <si>
+    <t>3,000(40)</t>
+  </si>
+  <si>
+    <t>a [Ω]</t>
+  </si>
+  <si>
+    <t>u(I)</t>
+  </si>
+  <si>
+    <t>u(Rh)</t>
+  </si>
+  <si>
+    <t>Rh [m^3/C]</t>
+  </si>
+  <si>
+    <t>4,54(33)</t>
+  </si>
+  <si>
+    <t>4,39(28)</t>
+  </si>
+  <si>
+    <t>4,32(27)</t>
+  </si>
+  <si>
+    <t>3,98(25)</t>
+  </si>
+  <si>
+    <t>Rh [mm*Ω/T]</t>
+  </si>
+  <si>
+    <t>γ0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +240,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -215,10 +307,57 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -227,11 +366,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -241,14 +440,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -3818,6 +4077,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D90D7F9-DBCF-5EB2-045E-401A0C468E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5581650" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1A98A5-CDA0-8E29-1ABD-A61430F0BD01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="647700" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4081,10 +4467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986FCCA-9D6E-468B-8DCF-200BE53BE065}">
-  <dimension ref="B1:S54"/>
+  <dimension ref="B1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="D49" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4098,11 +4484,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -5027,7 +5413,7 @@
         <v>1.8565934065934071</v>
       </c>
     </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
       <c r="N49">
         <v>3.5</v>
       </c>
@@ -5036,7 +5422,7 @@
         <v>2.1903846153846156</v>
       </c>
     </row>
-    <row r="50" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
       <c r="N50">
         <v>4</v>
       </c>
@@ -5045,7 +5431,7 @@
         <v>2.5241758241758245</v>
       </c>
     </row>
-    <row r="51" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
       <c r="N51">
         <v>4.5</v>
       </c>
@@ -5054,7 +5440,7 @@
         <v>2.8579670329670335</v>
       </c>
     </row>
-    <row r="52" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
       <c r="N52">
         <v>5</v>
       </c>
@@ -5063,7 +5449,7 @@
         <v>3.191758241758242</v>
       </c>
     </row>
-    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
       <c r="N53">
         <v>5.5</v>
       </c>
@@ -5072,13 +5458,43 @@
         <v>3.5255494505494509</v>
       </c>
     </row>
-    <row r="54" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:15" x14ac:dyDescent="0.25">
       <c r="N54">
         <v>6</v>
       </c>
       <c r="O54">
         <f t="shared" si="2"/>
         <v>3.8593406593406598</v>
+      </c>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -5092,29 +5508,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB54B77-5B7A-4E96-B022-EA93CBC2B5C8}">
-  <dimension ref="B1:AB27"/>
+  <dimension ref="B1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8" customWidth="1"/>
     <col min="12" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -5132,12 +5547,12 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
         <v>2</v>
@@ -5174,19 +5589,16 @@
       <c r="F3" s="1">
         <v>-2.9</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="1">
         <v>-4.2</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
       <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="1">
         <v>-6</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <f>(0.005*ABS(M3) + 3*0.01)/SQRT(3)</f>
         <v>3.4641016151377546E-2</v>
       </c>
@@ -5194,8 +5606,8 @@
       <c r="P3" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="8">
-        <f t="shared" ref="Q3:Q6" si="0">(0.02*P3+10*(10^(-3)))/SQRT(3)</f>
+      <c r="Q3" s="7">
+        <f>(0.02*P3+10*(10^(-3)))/SQRT(3)</f>
         <v>1.1547005383792516E-2</v>
       </c>
       <c r="R3" s="1"/>
@@ -5217,28 +5629,25 @@
       <c r="F4" s="1">
         <v>-2.4000000000000004</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="1">
         <v>-3.5</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
       <c r="M4" s="1">
         <v>-5</v>
       </c>
-      <c r="N4" s="8">
-        <f t="shared" ref="N4:N15" si="1">(0.005*ABS(M4) + 3*0.01)/SQRT(3)</f>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:N15" si="0">(0.005*ABS(M4) + 3*0.01)/SQRT(3)</f>
         <v>3.1754264805429422E-2</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" s="8">
-        <f t="shared" si="0"/>
+      <c r="Q4" s="7">
+        <f t="shared" ref="Q3:Q6" si="1">(0.02*P4+10*(10^(-3)))/SQRT(3)</f>
         <v>1.7320508075688773E-2</v>
       </c>
       <c r="R4" s="1"/>
@@ -5260,28 +5669,25 @@
       <c r="F5" s="1">
         <v>-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="1">
         <v>-2.9</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
       <c r="L5" s="1">
         <v>3</v>
       </c>
       <c r="M5" s="1">
         <v>-4</v>
       </c>
-      <c r="N5" s="8">
-        <f t="shared" si="1"/>
+      <c r="N5" s="7">
+        <f t="shared" si="0"/>
         <v>2.8867513459481291E-2</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
         <v>2</v>
       </c>
-      <c r="Q5" s="8">
-        <f t="shared" si="0"/>
+      <c r="Q5" s="7">
+        <f t="shared" si="1"/>
         <v>2.8867513459481291E-2</v>
       </c>
       <c r="R5" s="1"/>
@@ -5303,28 +5709,25 @@
       <c r="F6" s="1">
         <v>-1.4999999999999998</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="1">
         <v>-2.0999999999999996</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
       <c r="M6" s="1">
         <v>-3</v>
       </c>
-      <c r="N6" s="8">
-        <f t="shared" si="1"/>
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
         <v>2.598076211353316E-2</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
         <v>3</v>
       </c>
-      <c r="Q6" s="8">
-        <f t="shared" si="0"/>
+      <c r="Q6" s="7">
+        <f t="shared" si="1"/>
         <v>4.0414518843273801E-2</v>
       </c>
       <c r="R6" s="1"/>
@@ -5346,20 +5749,17 @@
       <c r="F7" s="1">
         <v>-1</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="1">
         <v>-1.4000000000000001</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
       <c r="M7" s="1">
         <v>-2</v>
       </c>
-      <c r="N7" s="8">
-        <f t="shared" si="1"/>
+      <c r="N7" s="7">
+        <f t="shared" si="0"/>
         <v>2.3094010767585032E-2</v>
       </c>
       <c r="O7" s="1"/>
@@ -5384,20 +5784,17 @@
       <c r="F8" s="1">
         <v>-0.5</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="1">
         <v>-0.7</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
       <c r="L8" s="1">
         <v>6</v>
       </c>
       <c r="M8" s="1">
         <v>-1</v>
       </c>
-      <c r="N8" s="8">
-        <f t="shared" si="1"/>
+      <c r="N8" s="7">
+        <f t="shared" si="0"/>
         <v>2.0207259421636901E-2</v>
       </c>
       <c r="O8" s="1"/>
@@ -5422,20 +5819,17 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
       <c r="L9" s="1">
         <v>7</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="8">
-        <f t="shared" si="1"/>
+      <c r="N9" s="7">
+        <f t="shared" si="0"/>
         <v>1.7320508075688773E-2</v>
       </c>
       <c r="O9" s="1"/>
@@ -5460,20 +5854,17 @@
       <c r="F10" s="1">
         <v>0.2</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="1">
         <v>0.4</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
       <c r="L10" s="1">
         <v>8</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="8">
-        <f t="shared" si="1"/>
+      <c r="N10" s="7">
+        <f t="shared" si="0"/>
         <v>2.0207259421636901E-2</v>
       </c>
       <c r="O10" s="1"/>
@@ -5498,20 +5889,17 @@
       <c r="F11" s="1">
         <v>0.8</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
       <c r="L11" s="1">
         <v>9</v>
       </c>
       <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="N11" s="8">
-        <f t="shared" si="1"/>
+      <c r="N11" s="7">
+        <f t="shared" si="0"/>
         <v>2.3094010767585032E-2</v>
       </c>
       <c r="O11" s="1"/>
@@ -5536,20 +5924,17 @@
       <c r="F12" s="1">
         <v>1.4</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="1">
         <v>1.8</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
       <c r="L12" s="1">
         <v>10</v>
       </c>
       <c r="M12" s="1">
         <v>3</v>
       </c>
-      <c r="N12" s="8">
-        <f t="shared" si="1"/>
+      <c r="N12" s="7">
+        <f t="shared" si="0"/>
         <v>2.598076211353316E-2</v>
       </c>
       <c r="O12" s="1"/>
@@ -5574,20 +5959,17 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="1">
         <v>2.5</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
       <c r="L13" s="1">
         <v>11</v>
       </c>
       <c r="M13" s="1">
         <v>4</v>
       </c>
-      <c r="N13" s="8">
-        <f t="shared" si="1"/>
+      <c r="N13" s="7">
+        <f t="shared" si="0"/>
         <v>2.8867513459481291E-2</v>
       </c>
       <c r="O13" s="1"/>
@@ -5612,20 +5994,17 @@
       <c r="F14" s="1">
         <v>2.4</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="1">
         <v>3.1999999999999997</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
       <c r="L14" s="1">
         <v>12</v>
       </c>
       <c r="M14" s="1">
         <v>5</v>
       </c>
-      <c r="N14" s="8">
-        <f t="shared" si="1"/>
+      <c r="N14" s="7">
+        <f t="shared" si="0"/>
         <v>3.1754264805429422E-2</v>
       </c>
       <c r="O14" s="1"/>
@@ -5650,20 +6029,17 @@
       <c r="F15" s="1">
         <v>2.9</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="1">
         <v>3.9</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
       <c r="L15" s="1">
         <v>13</v>
       </c>
       <c r="M15" s="1">
         <v>6</v>
       </c>
-      <c r="N15" s="8">
-        <f t="shared" si="1"/>
+      <c r="N15" s="7">
+        <f t="shared" si="0"/>
         <v>3.4641016151377546E-2</v>
       </c>
       <c r="O15" s="1"/>
@@ -5956,6 +6332,12 @@
       </c>
     </row>
     <row r="25" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <v>8.1500000000000003E-2</v>
+      </c>
       <c r="M25" s="1" t="s">
         <v>25</v>
       </c>
@@ -6010,6 +6392,12 @@
       </c>
     </row>
     <row r="26" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>4.5500000000000002E-3</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
         <v>28</v>
@@ -6084,6 +6472,481 @@
         <v>-0.14615384615384563</v>
       </c>
       <c r="AB27" s="1"/>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29">
+        <v>0.5</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>0.12692307692307692</v>
+      </c>
+      <c r="O30">
+        <v>0.2456043956043957</v>
+      </c>
+      <c r="P30">
+        <v>0.48241758241758248</v>
+      </c>
+      <c r="Q30">
+        <v>0.66758241758241754</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31">
+        <f>N30*$E$25/$E$26/N29</f>
+        <v>4.5469146238377007</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:Q31" si="2">O30*$E$25/$E$26/O29</f>
+        <v>4.3992875256611539</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>4.320553073300327</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>3.9859316507668154</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32">
+        <v>0.5</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="U32" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="7">
+        <v>35.824175824175825</v>
+      </c>
+      <c r="E33" s="7">
+        <v>55.790363482671168</v>
+      </c>
+      <c r="F33" s="7">
+        <v>9.0938292476754015</v>
+      </c>
+      <c r="G33" s="7">
+        <v>4.2269076919160906E-3</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <f>SQRT((D33*G33)^2+(E33*$E$31)^2+(F33*H33)^2)</f>
+        <v>0.33432044179143328</v>
+      </c>
+      <c r="J33">
+        <v>4.5469146238377007</v>
+      </c>
+      <c r="M33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="31">
+        <f>$E$25/$E$26/N29</f>
+        <v>35.824175824175825</v>
+      </c>
+      <c r="O33" s="31">
+        <f t="shared" ref="O33:Q33" si="3">$E$25/$E$26/O29</f>
+        <v>17.912087912087912</v>
+      </c>
+      <c r="P33" s="31">
+        <f t="shared" si="3"/>
+        <v>8.9560439560439562</v>
+      </c>
+      <c r="Q33" s="31">
+        <f t="shared" si="3"/>
+        <v>5.9706959706959708</v>
+      </c>
+      <c r="T33">
+        <v>0.5</v>
+      </c>
+      <c r="U33">
+        <v>35.824175824175825</v>
+      </c>
+      <c r="V33">
+        <v>55.790363482671168</v>
+      </c>
+      <c r="W33">
+        <v>9.0938292476754015</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>17.912087912087912</v>
+      </c>
+      <c r="E34" s="7">
+        <v>53.978988044922133</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4.3992875256611539</v>
+      </c>
+      <c r="G34" s="7">
+        <v>4.0137592557365192E-3</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1.7320508075688773E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" ref="I34:I36" si="4">SQRT((D34*G34)^2+(E34*$E$31)^2+(F34*H34)^2)</f>
+        <v>0.28951383643830297</v>
+      </c>
+      <c r="J34">
+        <v>4.3992875256611539</v>
+      </c>
+      <c r="M34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" s="31">
+        <f>N30/$E$26/N29</f>
+        <v>55.790363482671168</v>
+      </c>
+      <c r="O34" s="31">
+        <f t="shared" ref="O34:Q34" si="5">O30/$E$26/O29</f>
+        <v>53.978988044922133</v>
+      </c>
+      <c r="P34" s="31">
+        <f t="shared" si="5"/>
+        <v>53.012921144789281</v>
+      </c>
+      <c r="Q34" s="31">
+        <f t="shared" si="5"/>
+        <v>48.907136819224725</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>17.912087912087912</v>
+      </c>
+      <c r="V34">
+        <v>53.978988044922133</v>
+      </c>
+      <c r="W34">
+        <v>4.3992875256611539</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>8.9560439560439562</v>
+      </c>
+      <c r="E35" s="7">
+        <v>53.012921144789281</v>
+      </c>
+      <c r="F35" s="7">
+        <v>2.1602765366501635</v>
+      </c>
+      <c r="G35" s="7">
+        <v>6.9263268777873853E-3</v>
+      </c>
+      <c r="H35" s="7">
+        <v>2.8867513459481291E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2792781236817159</v>
+      </c>
+      <c r="J35">
+        <v>4.320553073300327</v>
+      </c>
+      <c r="M35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="31">
+        <f>N30*$E$25/$E$26/N29/N29</f>
+        <v>9.0938292476754015</v>
+      </c>
+      <c r="O35" s="31">
+        <f t="shared" ref="O35:Q35" si="6">O30*$E$25/$E$26/O29/O29</f>
+        <v>4.3992875256611539</v>
+      </c>
+      <c r="P35" s="31">
+        <f t="shared" si="6"/>
+        <v>2.1602765366501635</v>
+      </c>
+      <c r="Q35" s="31">
+        <f t="shared" si="6"/>
+        <v>1.3286438835889385</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>8.9560439560439562</v>
+      </c>
+      <c r="V35">
+        <v>53.012921144789281</v>
+      </c>
+      <c r="W35">
+        <v>2.1602765366501635</v>
+      </c>
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5.9706959706959708</v>
+      </c>
+      <c r="E36" s="7">
+        <v>48.907136819224725</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1.3286438835889385</v>
+      </c>
+      <c r="G36" s="7">
+        <v>6.3625070943341593E-3</v>
+      </c>
+      <c r="H36" s="7">
+        <v>4.0414518843273801E-2</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25322746424039311</v>
+      </c>
+      <c r="J36">
+        <v>3.9859316507668154</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>5.9706959706959708</v>
+      </c>
+      <c r="V36">
+        <v>48.907136819224725</v>
+      </c>
+      <c r="W36">
+        <v>1.3286438835889385</v>
+      </c>
+    </row>
+    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <v>0.45</v>
+      </c>
+      <c r="U39">
+        <v>0.44</v>
+      </c>
+      <c r="V39">
+        <v>0.38</v>
+      </c>
+      <c r="W39">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="S40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41">
+        <f>AVERAGE(C42:C45)</f>
+        <v>0.28908496653796134</v>
+      </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>48</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T41" s="5">
+        <v>55.79</v>
+      </c>
+      <c r="U41" s="5">
+        <v>53.97</v>
+      </c>
+      <c r="V41" s="5">
+        <v>53.01</v>
+      </c>
+      <c r="W41" s="5">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0.33432044179143328</v>
+      </c>
+      <c r="D42">
+        <v>4.5469146238377007</v>
+      </c>
+      <c r="E42">
+        <f>D42*C42</f>
+        <v>1.5201265058293487</v>
+      </c>
+      <c r="F42">
+        <f>SUM(E42:E45)/SUM(C42:C45)</f>
+        <v>4.3324325155270662</v>
+      </c>
+      <c r="M42" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42">
+        <v>4.5469146238377007</v>
+      </c>
+      <c r="O42">
+        <v>4.3992875256611539</v>
+      </c>
+      <c r="P42">
+        <v>4.320553073300327</v>
+      </c>
+      <c r="Q42">
+        <v>3.9859316507668154</v>
+      </c>
+    </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0.28951383643830297</v>
+      </c>
+      <c r="D43">
+        <v>4.3992875256611539</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E45" si="7">D43*C43</f>
+        <v>1.2736546091493299</v>
+      </c>
+      <c r="N43">
+        <v>0.33432044179143328</v>
+      </c>
+      <c r="O43">
+        <v>0.28951383643830297</v>
+      </c>
+      <c r="P43">
+        <v>0.2792781236817159</v>
+      </c>
+      <c r="Q43">
+        <v>0.25322746424039311</v>
+      </c>
+      <c r="T43">
+        <f>(T41*T39+U41*U39+V41*V39+W41*W39)/SUM(T39:W39)</f>
+        <v>53.154999999999994</v>
+      </c>
+      <c r="U43">
+        <f>AVERAGE(T39:W39)</f>
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0.2792781236817159</v>
+      </c>
+      <c r="D44">
+        <v>4.320553073300327</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="7"/>
+        <v>1.2066359555785864</v>
+      </c>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0.25322746424039311</v>
+      </c>
+      <c r="D45">
+        <v>3.9859316507668154</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="7"/>
+        <v>1.0093473645592048</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6097,11 +6960,921 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E7C0A2-EB2D-4104-98FC-FB05A7184819}">
+  <dimension ref="A1:AJ37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="23" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7.28515625" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.28515625" customWidth="1"/>
+    <col min="32" max="32" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="7.28515625" customWidth="1"/>
+    <col min="36" max="36" width="4.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>-6</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-0.69999999999999973</v>
+      </c>
+      <c r="D2" s="9">
+        <v>-1.5</v>
+      </c>
+      <c r="E2" s="9">
+        <v>-2.9</v>
+      </c>
+      <c r="F2" s="9">
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>-5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-2.4000000000000004</v>
+      </c>
+      <c r="F3" s="9">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>-4</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-0.5</v>
+      </c>
+      <c r="D4" s="9">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E4" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>-3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-1.4999999999999998</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-2.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>-2</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-0.5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-0.5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>-0.7</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+    </row>
+    <row r="10" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3.1999999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="17" spans="9:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="N17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="9:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="N18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="9:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="U24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="18"/>
+    </row>
+    <row r="25" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25">
+        <v>0.5</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="U25" s="13"/>
+      <c r="V25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ25" s="12"/>
+    </row>
+    <row r="26" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26">
+        <v>0.12692307692307692</v>
+      </c>
+      <c r="P26">
+        <v>0.2456043956043957</v>
+      </c>
+      <c r="Q26">
+        <v>0.48241758241758248</v>
+      </c>
+      <c r="R26">
+        <v>0.66758241758241754</v>
+      </c>
+      <c r="U26" s="13"/>
+      <c r="V26" s="21">
+        <v>0.12692307692307692</v>
+      </c>
+      <c r="W26" s="21">
+        <v>3.0769230769230764E-2</v>
+      </c>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="21">
+        <v>0.24560439560439568</v>
+      </c>
+      <c r="AA26" s="21">
+        <v>-3.8461538461538464E-2</v>
+      </c>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="21">
+        <v>0.48241758241758248</v>
+      </c>
+      <c r="AE26" s="21">
+        <v>-4.6153846153846198E-2</v>
+      </c>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="21">
+        <v>0.66758241758241765</v>
+      </c>
+      <c r="AI26" s="21">
+        <v>-0.14615384615384608</v>
+      </c>
+      <c r="AJ26" s="20"/>
+    </row>
+    <row r="27" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="5">
+        <v>35.824175824175825</v>
+      </c>
+      <c r="K27" s="5">
+        <v>55.790363482671168</v>
+      </c>
+      <c r="L27" s="5">
+        <v>9.0938292476754015</v>
+      </c>
+      <c r="N27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27">
+        <v>4.5469146238377007</v>
+      </c>
+      <c r="P27">
+        <v>4.3992875256611539</v>
+      </c>
+      <c r="Q27">
+        <v>4.320553073300327</v>
+      </c>
+      <c r="R27">
+        <v>3.9859316507668154</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="21">
+        <v>4.2269076919160906E-3</v>
+      </c>
+      <c r="W27" s="21">
+        <v>1.5815640388669432E-2</v>
+      </c>
+      <c r="X27" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z27" s="21">
+        <v>4.0137592557365192E-3</v>
+      </c>
+      <c r="AA27" s="21">
+        <v>1.5018111967958823E-2</v>
+      </c>
+      <c r="AB27" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD27" s="21">
+        <v>6.9263268777873853E-3</v>
+      </c>
+      <c r="AE27" s="21">
+        <v>2.5915942125484061E-2</v>
+      </c>
+      <c r="AF27" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH27" s="21">
+        <v>6.3625070943341593E-3</v>
+      </c>
+      <c r="AI27" s="21">
+        <v>2.3806321667917015E-2</v>
+      </c>
+      <c r="AJ27" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>17.912087912087912</v>
+      </c>
+      <c r="K28" s="5">
+        <v>53.978988044922133</v>
+      </c>
+      <c r="L28" s="5">
+        <v>4.3992875256611539</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V28" s="21">
+        <v>0.98794712286158626</v>
+      </c>
+      <c r="W28" s="21">
+        <v>5.7024102375646854E-2</v>
+      </c>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z28" s="21">
+        <v>0.99707079981636371</v>
+      </c>
+      <c r="AA28" s="21">
+        <v>5.4148572761134939E-2</v>
+      </c>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD28" s="21">
+        <v>0.9977376034127502</v>
+      </c>
+      <c r="AE28" s="21">
+        <v>9.344125818538998E-2</v>
+      </c>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH28" s="21">
+        <v>0.99900182716383568</v>
+      </c>
+      <c r="AI28" s="21">
+        <v>8.5834913453864195E-2</v>
+      </c>
+      <c r="AJ28" s="20"/>
+    </row>
+    <row r="29" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="5">
+        <v>8.9560439560439562</v>
+      </c>
+      <c r="K29" s="5">
+        <v>53.012921144789281</v>
+      </c>
+      <c r="L29" s="5">
+        <v>2.1602765366501635</v>
+      </c>
+      <c r="U29" s="13"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="20"/>
+    </row>
+    <row r="30" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+      <c r="J30" s="5">
+        <v>5.9706959706959708</v>
+      </c>
+      <c r="K30" s="5">
+        <v>48.907136819224725</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1.3286438835889385</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="V30" s="21">
+        <v>-6</v>
+      </c>
+      <c r="W30" s="21">
+        <v>-0.73076923076923073</v>
+      </c>
+      <c r="X30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z30" s="21">
+        <v>-6</v>
+      </c>
+      <c r="AA30" s="21">
+        <v>-1.5120879120879127</v>
+      </c>
+      <c r="AB30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD30" s="21">
+        <v>-6</v>
+      </c>
+      <c r="AE30" s="21">
+        <v>-2.9406593406593409</v>
+      </c>
+      <c r="AF30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH30" s="21">
+        <v>-6</v>
+      </c>
+      <c r="AI30" s="21">
+        <v>-4.1516483516483511</v>
+      </c>
+      <c r="AJ30" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="U31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V31" s="21">
+        <v>6</v>
+      </c>
+      <c r="W31" s="21">
+        <v>0.79230769230769227</v>
+      </c>
+      <c r="X31" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z31" s="21">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="21">
+        <v>1.4351648351648356</v>
+      </c>
+      <c r="AB31" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD31" s="21">
+        <v>6</v>
+      </c>
+      <c r="AE31" s="21">
+        <v>2.8483516483516489</v>
+      </c>
+      <c r="AF31" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH31" s="21">
+        <v>6</v>
+      </c>
+      <c r="AI31" s="21">
+        <v>3.8593406593406594</v>
+      </c>
+      <c r="AJ31" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="U32" s="13"/>
+      <c r="V32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA32" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE32" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI32" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ32" s="14"/>
+    </row>
+    <row r="33" spans="9:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="24">
+        <v>0.126923076923077</v>
+      </c>
+      <c r="W33" s="24">
+        <v>3.0769230769230771E-2</v>
+      </c>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="24">
+        <v>0.2456043956043957</v>
+      </c>
+      <c r="AA33" s="24">
+        <v>-3.8461538461538547E-2</v>
+      </c>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="24">
+        <v>0.48241758241758248</v>
+      </c>
+      <c r="AE33" s="24">
+        <v>-4.615384615384599E-2</v>
+      </c>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="24">
+        <v>0.66758241758241754</v>
+      </c>
+      <c r="AI33" s="24">
+        <v>-0.14615384615384563</v>
+      </c>
+      <c r="AJ33" s="15"/>
+    </row>
+    <row r="34" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="5">
+        <v>9.0938292476754015</v>
+      </c>
+    </row>
+    <row r="35" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>4.3992875256611539</v>
+      </c>
+    </row>
+    <row r="36" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <v>2</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2.1602765366501635</v>
+      </c>
+    </row>
+    <row r="37" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>3</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1.3286438835889385</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AG24:AJ24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S18"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:S15"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6113,13 +7886,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="L1" t="s">
         <v>1</v>
       </c>
@@ -6331,7 +8104,7 @@
         <v>-4</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="1"/>
+        <f>$D5-E5</f>
         <v>-0.5</v>
       </c>
       <c r="O5" s="1">
@@ -6449,11 +8222,11 @@
         <v>-2</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="1"/>
+        <f>$D7-E7</f>
         <v>-0.20000000000000018</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="0"/>
+        <f>$D7-F7</f>
         <v>-0.5</v>
       </c>
       <c r="P7" s="1">

--- a/5/5 efekt halla.xlsx
+++ b/5/5 efekt halla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC471C74-0C5B-43A2-BBA7-1BF465A21AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F85C9DF-A2FE-4967-8624-C4E773DB91AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="55">
   <si>
     <t>Uy, mV</t>
   </si>
@@ -200,18 +200,6 @@
     <t>Rh [m^3/C]</t>
   </si>
   <si>
-    <t>4,54(33)</t>
-  </si>
-  <si>
-    <t>4,39(28)</t>
-  </si>
-  <si>
-    <t>4,32(27)</t>
-  </si>
-  <si>
-    <t>3,98(25)</t>
-  </si>
-  <si>
     <t>Rh [mm*Ω/T]</t>
   </si>
   <si>
@@ -224,7 +212,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -270,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -426,11 +414,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -441,9 +466,6 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -461,53 +483,61 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1940,22 +1970,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-0.69999999999999973</c:v>
+                  <c:v>0.69999999999999973</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.60000000000000009</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.29999999999999982</c:v>
+                  <c:v>0.29999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.20000000000000018</c:v>
+                  <c:v>0.20000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.9999999999999978E-2</c:v>
+                  <c:v>9.9999999999999978E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1964,19 +1994,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>-0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39999999999999991</c:v>
+                  <c:v>-0.39999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>-0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69999999999999973</c:v>
+                  <c:v>-0.69999999999999973</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79999999999999982</c:v>
+                  <c:v>-0.79999999999999982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,43 +2154,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-1.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2000000000000002</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1000000000000001</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.79999999999999982</c:v>
+                  <c:v>0.79999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.30000000000000004</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0000000000000002</c:v>
+                  <c:v>-1.0000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1999999999999997</c:v>
+                  <c:v>-1.1999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4</c:v>
+                  <c:v>-1.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,43 +2338,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-2.9</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.4000000000000004</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.4999999999999998</c:v>
+                  <c:v>1.4999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4</c:v>
+                  <c:v>-1.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4</c:v>
+                  <c:v>-2.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9</c:v>
+                  <c:v>-2.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2492,43 +2522,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-4.2</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.9</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0999999999999996</c:v>
+                  <c:v>2.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.4000000000000001</c:v>
+                  <c:v>1.4000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.7</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8</c:v>
+                  <c:v>-1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5</c:v>
+                  <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1999999999999997</c:v>
+                  <c:v>-3.1999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9</c:v>
+                  <c:v>-3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2675,8 +2705,8 @@
         <c:axId val="923293984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4"/>
-          <c:min val="-4.5"/>
+          <c:max val="4.5"/>
+          <c:min val="-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4081,16 +4111,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>422413</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>197955</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>189257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4120,8 +4150,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5581650" cy="2771775"/>
+          <a:off x="828261" y="612913"/>
+          <a:ext cx="5589933" cy="2756866"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4142,16 +4172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>287526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>361477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18635</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>125837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4181,8 +4211,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="647700" cy="962025"/>
+          <a:off x="7240776" y="756084"/>
+          <a:ext cx="642788" cy="948182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4484,11 +4514,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -5510,8 +5540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB54B77-5B7A-4E96-B022-EA93CBC2B5C8}">
   <dimension ref="B1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5525,11 +5555,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -5581,16 +5611,22 @@
         <v>-6</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.69999999999999973</v>
+        <v>0.69999999999999973</v>
       </c>
       <c r="E3" s="1">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="F3" s="1">
-        <v>-2.9</v>
+        <v>2.9</v>
       </c>
       <c r="G3" s="1">
-        <v>-4.2</v>
+        <v>4.2</v>
+      </c>
+      <c r="H3">
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="I3">
+        <v>4.7</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -5621,16 +5657,22 @@
         <v>-5</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.60000000000000009</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="E4" s="1">
-        <v>-1.2000000000000002</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="F4" s="1">
-        <v>-2.4000000000000004</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="G4" s="1">
-        <v>-3.5</v>
+        <v>3.5</v>
+      </c>
+      <c r="H4">
+        <v>3.6</v>
+      </c>
+      <c r="I4">
+        <v>3.9</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
@@ -5647,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="7">
-        <f t="shared" ref="Q3:Q6" si="1">(0.02*P4+10*(10^(-3)))/SQRT(3)</f>
+        <f t="shared" ref="Q4:Q6" si="1">(0.02*P4+10*(10^(-3)))/SQRT(3)</f>
         <v>1.7320508075688773E-2</v>
       </c>
       <c r="R4" s="1"/>
@@ -5661,16 +5703,22 @@
         <v>-4</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1">
-        <v>-1.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>-2.9</v>
+        <v>2.9</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3.1</v>
       </c>
       <c r="L5" s="1">
         <v>3</v>
@@ -5701,16 +5749,22 @@
         <v>-3</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.29999999999999982</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.79999999999999982</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="F6" s="1">
-        <v>-1.4999999999999998</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="G6" s="1">
-        <v>-2.0999999999999996</v>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="H6">
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="I6">
+        <v>2.2999999999999998</v>
       </c>
       <c r="L6" s="1">
         <v>4</v>
@@ -5741,16 +5795,22 @@
         <v>-2</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.20000000000000018</v>
+        <v>0.20000000000000018</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>-1.4000000000000001</v>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.5</v>
+      </c>
+      <c r="I7">
+        <v>1.6</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
@@ -5776,16 +5836,22 @@
         <v>-1</v>
       </c>
       <c r="D8" s="1">
-        <v>-9.9999999999999978E-2</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>-0.30000000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="1">
-        <v>-0.7</v>
+        <v>0.7</v>
+      </c>
+      <c r="H8">
+        <v>0.7</v>
+      </c>
+      <c r="I8">
+        <v>0.8</v>
       </c>
       <c r="L8" s="1">
         <v>6</v>
@@ -5822,6 +5888,12 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="L9" s="1">
         <v>7</v>
       </c>
@@ -5849,13 +5921,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F10" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="G10" s="1">
-        <v>0.4</v>
+        <v>-0.4</v>
+      </c>
+      <c r="H10">
+        <v>-0.4</v>
+      </c>
+      <c r="I10">
+        <v>-0.5</v>
       </c>
       <c r="L10" s="1">
         <v>8</v>
@@ -5881,16 +5959,22 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>0.30000000000000004</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="E11" s="1">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="F11" s="1">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="G11" s="1">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="H11">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="I11">
+        <v>-1.4</v>
       </c>
       <c r="L11" s="1">
         <v>9</v>
@@ -5916,16 +6000,22 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>0.39999999999999991</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="E12" s="1">
-        <v>0.7</v>
+        <v>-0.7</v>
       </c>
       <c r="F12" s="1">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="G12" s="1">
-        <v>1.8</v>
+        <v>-1.8</v>
+      </c>
+      <c r="H12">
+        <v>-2</v>
+      </c>
+      <c r="I12">
+        <v>-2.2000000000000002</v>
       </c>
       <c r="L12" s="1">
         <v>10</v>
@@ -5951,16 +6041,22 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>0.60000000000000009</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="E13" s="1">
-        <v>1.0000000000000002</v>
+        <v>-1.0000000000000002</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G13" s="1">
-        <v>2.5</v>
+        <v>-2.5</v>
+      </c>
+      <c r="H13">
+        <v>-2.8000000000000003</v>
+      </c>
+      <c r="I13">
+        <v>-3.1</v>
       </c>
       <c r="L13" s="1">
         <v>11</v>
@@ -5986,16 +6082,22 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>0.69999999999999973</v>
+        <v>-0.69999999999999973</v>
       </c>
       <c r="E14" s="1">
-        <v>1.1999999999999997</v>
+        <v>-1.1999999999999997</v>
       </c>
       <c r="F14" s="1">
-        <v>2.4</v>
+        <v>-2.4</v>
       </c>
       <c r="G14" s="1">
-        <v>3.1999999999999997</v>
+        <v>-3.1999999999999997</v>
+      </c>
+      <c r="H14">
+        <v>-3.5</v>
+      </c>
+      <c r="I14">
+        <v>-3.9</v>
       </c>
       <c r="L14" s="1">
         <v>12</v>
@@ -6021,16 +6123,22 @@
         <v>6</v>
       </c>
       <c r="D15" s="1">
-        <v>0.79999999999999982</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="E15" s="1">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="F15" s="1">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="G15" s="1">
-        <v>3.9</v>
+        <v>-3.9</v>
+      </c>
+      <c r="H15">
+        <v>-4.3</v>
+      </c>
+      <c r="I15">
+        <v>-4.8</v>
       </c>
       <c r="L15" s="1">
         <v>13</v>
@@ -6126,37 +6234,37 @@
       <c r="M20" s="1"/>
       <c r="N20" s="5">
         <f t="array" ref="N20:O22">LINEST(D$3:D$15,$C$3:$C$15,TRUE,TRUE)</f>
-        <v>0.12692307692307692</v>
+        <v>-0.12692307692307692</v>
       </c>
       <c r="O20" s="5">
-        <v>3.0769230769230764E-2</v>
+        <v>-3.0769230769230764E-2</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="5">
         <f t="array" ref="R20:S22">LINEST(E$3:E$15,$C$3:$C$15,TRUE,TRUE)</f>
-        <v>0.24560439560439568</v>
+        <v>-0.24560439560439568</v>
       </c>
       <c r="S20" s="5">
-        <v>-3.8461538461538464E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="5">
         <f t="array" ref="V20:W22">LINEST(F$3:F$15,$C$3:$C$15,TRUE,TRUE)</f>
-        <v>0.48241758241758248</v>
+        <v>-0.48241758241758248</v>
       </c>
       <c r="W20" s="5">
-        <v>-4.6153846153846198E-2</v>
+        <v>4.6153846153846198E-2</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="5">
         <f t="array" ref="Z20:AA22">LINEST(G$3:G$15,$C$3:$C$15,TRUE,TRUE)</f>
-        <v>0.66758241758241765</v>
+        <v>-0.66758241758241765</v>
       </c>
       <c r="AA20" s="5">
-        <v>-0.14615384615384608</v>
+        <v>0.14615384615384608</v>
       </c>
       <c r="AB20" s="1"/>
     </row>
@@ -6286,7 +6394,7 @@
       </c>
       <c r="O24" s="5">
         <f>N24*N$20+O$20</f>
-        <v>-0.73076923076923073</v>
+        <v>0.73076923076923073</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>26</v>
@@ -6299,7 +6407,7 @@
       </c>
       <c r="S24" s="5">
         <f>R24*R$20+S$20</f>
-        <v>-1.5120879120879127</v>
+        <v>1.5120879120879127</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>26</v>
@@ -6312,7 +6420,7 @@
       </c>
       <c r="W24" s="5">
         <f>V24*V$20+W$20</f>
-        <v>-2.9406593406593409</v>
+        <v>2.9406593406593409</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>26</v>
@@ -6325,7 +6433,7 @@
       </c>
       <c r="AA24" s="5">
         <f>Z24*Z$20+AA$20</f>
-        <v>-4.1516483516483511</v>
+        <v>4.1516483516483511</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>26</v>
@@ -6346,7 +6454,7 @@
       </c>
       <c r="O25" s="5">
         <f>N25*N$20+O$20</f>
-        <v>0.79230769230769227</v>
+        <v>-0.79230769230769227</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>27</v>
@@ -6359,7 +6467,7 @@
       </c>
       <c r="S25" s="5">
         <f>R25*R$20+S$20</f>
-        <v>1.4351648351648356</v>
+        <v>-1.4351648351648356</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>27</v>
@@ -6372,7 +6480,7 @@
       </c>
       <c r="W25" s="5">
         <f>V25*V$20+W$20</f>
-        <v>2.8483516483516489</v>
+        <v>-2.8483516483516489</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>27</v>
@@ -6385,7 +6493,7 @@
       </c>
       <c r="AA25" s="5">
         <f>Z25*Z$20+AA$20</f>
-        <v>3.8593406593406594</v>
+        <v>-3.8593406593406594</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>27</v>
@@ -6435,41 +6543,41 @@
       <c r="M27" s="1"/>
       <c r="N27" s="5">
         <f>(O24-O25)/(N24-N25)</f>
-        <v>0.12692307692307692</v>
+        <v>-0.12692307692307692</v>
       </c>
       <c r="O27" s="5">
         <f>O24-(O24-O25)/(N24-N25)*N24</f>
-        <v>3.0769230769230771E-2</v>
+        <v>-3.0769230769230771E-2</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="5">
         <f>(S24-S25)/(R24-R25)</f>
-        <v>0.2456043956043957</v>
+        <v>-0.2456043956043957</v>
       </c>
       <c r="S27" s="5">
         <f>S24-(S24-S25)/(R24-R25)*R24</f>
-        <v>-3.8461538461538547E-2</v>
+        <v>3.8461538461538547E-2</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="5">
         <f>(W24-W25)/(V24-V25)</f>
-        <v>0.48241758241758248</v>
+        <v>-0.48241758241758248</v>
       </c>
       <c r="W27" s="5">
         <f>W24-(W24-W25)/(V24-V25)*V24</f>
-        <v>-4.615384615384599E-2</v>
+        <v>4.615384615384599E-2</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="5">
         <f>(AA24-AA25)/(Z24-Z25)</f>
-        <v>0.66758241758241754</v>
+        <v>-0.66758241758241754</v>
       </c>
       <c r="AA27" s="5">
         <f>AA24-(AA24-AA25)/(Z24-Z25)*Z24</f>
-        <v>-0.14615384615384563</v>
+        <v>0.14615384615384563</v>
       </c>
       <c r="AB27" s="1"/>
     </row>
@@ -6494,17 +6602,21 @@
       <c r="M30" t="s">
         <v>19</v>
       </c>
-      <c r="N30">
-        <v>0.12692307692307692</v>
-      </c>
-      <c r="O30">
-        <v>0.2456043956043957</v>
-      </c>
-      <c r="P30">
-        <v>0.48241758241758248</v>
-      </c>
-      <c r="Q30">
-        <v>0.66758241758241754</v>
+      <c r="N30" s="26">
+        <f>N27</f>
+        <v>-0.12692307692307692</v>
+      </c>
+      <c r="O30" s="26">
+        <f>R27</f>
+        <v>-0.2456043956043957</v>
+      </c>
+      <c r="P30" s="26">
+        <f>V27</f>
+        <v>-0.48241758241758248</v>
+      </c>
+      <c r="Q30" s="26">
+        <f>Z27</f>
+        <v>-0.66758241758241754</v>
       </c>
     </row>
     <row r="31" spans="3:28" x14ac:dyDescent="0.25">
@@ -6516,19 +6628,19 @@
       </c>
       <c r="N31">
         <f>N30*$E$25/$E$26/N29</f>
-        <v>4.5469146238377007</v>
+        <v>-4.5469146238377007</v>
       </c>
       <c r="O31">
         <f t="shared" ref="O31:Q31" si="2">O30*$E$25/$E$26/O29</f>
-        <v>4.3992875256611539</v>
+        <v>-4.3992875256611539</v>
       </c>
       <c r="P31">
         <f t="shared" si="2"/>
-        <v>4.320553073300327</v>
+        <v>-4.320553073300327</v>
       </c>
       <c r="Q31">
         <f t="shared" si="2"/>
-        <v>3.9859316507668154</v>
+        <v>-3.9859316507668154</v>
       </c>
     </row>
     <row r="32" spans="3:28" x14ac:dyDescent="0.25">
@@ -6544,13 +6656,13 @@
       <c r="F32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="1" t="s">
         <v>51</v>
       </c>
       <c r="N32">
@@ -6580,7 +6692,7 @@
         <v>0.5</v>
       </c>
       <c r="D33" s="7">
-        <v>35.824175824175825</v>
+        <v>-35.824175824175803</v>
       </c>
       <c r="E33" s="7">
         <v>55.790363482671168</v>
@@ -6596,7 +6708,7 @@
       </c>
       <c r="I33" s="1">
         <f>SQRT((D33*G33)^2+(E33*$E$31)^2+(F33*H33)^2)</f>
-        <v>0.33432044179143328</v>
+        <v>0.33432044179143322</v>
       </c>
       <c r="J33">
         <v>4.5469146238377007</v>
@@ -6604,19 +6716,19 @@
       <c r="M33" t="s">
         <v>19</v>
       </c>
-      <c r="N33" s="31">
+      <c r="N33" s="26">
         <f>$E$25/$E$26/N29</f>
         <v>35.824175824175825</v>
       </c>
-      <c r="O33" s="31">
+      <c r="O33" s="26">
         <f t="shared" ref="O33:Q33" si="3">$E$25/$E$26/O29</f>
         <v>17.912087912087912</v>
       </c>
-      <c r="P33" s="31">
+      <c r="P33" s="26">
         <f t="shared" si="3"/>
         <v>8.9560439560439562</v>
       </c>
-      <c r="Q33" s="31">
+      <c r="Q33" s="26">
         <f t="shared" si="3"/>
         <v>5.9706959706959708</v>
       </c>
@@ -6638,7 +6750,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>17.912087912087912</v>
+        <v>-17.912087912087902</v>
       </c>
       <c r="E34" s="7">
         <v>53.978988044922133</v>
@@ -6662,21 +6774,21 @@
       <c r="M34" t="s">
         <v>41</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N34" s="26">
         <f>N30/$E$26/N29</f>
-        <v>55.790363482671168</v>
-      </c>
-      <c r="O34" s="31">
+        <v>-55.790363482671168</v>
+      </c>
+      <c r="O34" s="26">
         <f t="shared" ref="O34:Q34" si="5">O30/$E$26/O29</f>
-        <v>53.978988044922133</v>
-      </c>
-      <c r="P34" s="31">
+        <v>-53.978988044922133</v>
+      </c>
+      <c r="P34" s="26">
         <f t="shared" si="5"/>
-        <v>53.012921144789281</v>
-      </c>
-      <c r="Q34" s="31">
+        <v>-53.012921144789281</v>
+      </c>
+      <c r="Q34" s="26">
         <f t="shared" si="5"/>
-        <v>48.907136819224725</v>
+        <v>-48.907136819224725</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -6696,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>8.9560439560439562</v>
+        <v>-8.9560439560439598</v>
       </c>
       <c r="E35" s="7">
         <v>53.012921144789281</v>
@@ -6720,21 +6832,21 @@
       <c r="M35" t="s">
         <v>17</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="26">
         <f>N30*$E$25/$E$26/N29/N29</f>
-        <v>9.0938292476754015</v>
-      </c>
-      <c r="O35" s="31">
+        <v>-9.0938292476754015</v>
+      </c>
+      <c r="O35" s="26">
         <f t="shared" ref="O35:Q35" si="6">O30*$E$25/$E$26/O29/O29</f>
-        <v>4.3992875256611539</v>
-      </c>
-      <c r="P35" s="31">
+        <v>-4.3992875256611539</v>
+      </c>
+      <c r="P35" s="26">
         <f t="shared" si="6"/>
-        <v>2.1602765366501635</v>
-      </c>
-      <c r="Q35" s="31">
+        <v>-2.1602765366501635</v>
+      </c>
+      <c r="Q35" s="26">
         <f t="shared" si="6"/>
-        <v>1.3286438835889385</v>
+        <v>-1.3286438835889385</v>
       </c>
       <c r="T35">
         <v>2</v>
@@ -6754,7 +6866,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="7">
-        <v>5.9706959706959708</v>
+        <v>-5.9706959706959699</v>
       </c>
       <c r="E36" s="7">
         <v>48.907136819224725</v>
@@ -6846,19 +6958,19 @@
         <v>48</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="T41" s="5">
-        <v>55.79</v>
+        <v>-55.79</v>
       </c>
       <c r="U41" s="5">
-        <v>53.97</v>
+        <v>-53.97</v>
       </c>
       <c r="V41" s="5">
-        <v>53.01</v>
+        <v>-53.01</v>
       </c>
       <c r="W41" s="5">
-        <v>48.9</v>
+        <v>-48.9</v>
       </c>
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.25">
@@ -6917,7 +7029,7 @@
       </c>
       <c r="T43">
         <f>(T41*T39+U41*U39+V41*V39+W41*W39)/SUM(T39:W39)</f>
-        <v>53.154999999999994</v>
+        <v>-53.154999999999994</v>
       </c>
       <c r="U43">
         <f>AVERAGE(T39:W39)</f>
@@ -6961,10 +7073,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E7C0A2-EB2D-4104-98FC-FB05A7184819}">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6980,394 +7092,398 @@
     <col min="15" max="18" width="23" customWidth="1"/>
     <col min="19" max="19" width="24.7109375" customWidth="1"/>
     <col min="21" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" customWidth="1"/>
+    <col min="22" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7.28515625" customWidth="1"/>
+    <col min="26" max="27" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="7.28515625" customWidth="1"/>
+    <col min="29" max="29" width="17" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="7.28515625" customWidth="1"/>
+    <col min="34" max="35" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-6</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.69999999999999973</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-1.5</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-2.9</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>-4.2</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.60000000000000009</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-1.2000000000000002</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-2.4000000000000004</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>-3.5</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>-4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>-0.5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>-2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>-2.9</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>-0.29999999999999982</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>-0.79999999999999982</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-1.4999999999999998</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-2.0999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>-2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>-0.20000000000000018</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>-0.5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>-1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>-1.4000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>-1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>-0.30000000000000004</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>-0.5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>-0.7</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="34" t="s">
+      <c r="Q7" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="34" t="s">
+      <c r="S7" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="O8" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="34" t="s">
+      <c r="O8" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="S8" s="34" t="s">
-        <v>56</v>
+      <c r="P8" s="28" t="str">
+        <f>"-4,54"</f>
+        <v>-4,54</v>
+      </c>
+      <c r="Q8" s="28" t="str">
+        <f>"-4,39"</f>
+        <v>-4,39</v>
+      </c>
+      <c r="R8" s="28" t="str">
+        <f>"-4,32"</f>
+        <v>-4,32</v>
+      </c>
+      <c r="S8" s="28" t="str">
+        <f>"-3,98"</f>
+        <v>-3,98</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>0.1</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>0.2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>0.4</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0.30000000000000004</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0.5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>0.8</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>0.39999999999999991</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>0.7</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>1.4</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>4</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>0.60000000000000009</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>1.0000000000000002</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>5</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>0.69999999999999973</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>1.1999999999999997</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>2.4</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>3.1999999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>6</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>0.79999999999999982</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>1.4</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>2.9</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>3.9</v>
       </c>
     </row>
     <row r="17" spans="9:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="29" t="s">
+      <c r="O17" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="29" t="s">
+      <c r="P17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="29" t="s">
+      <c r="Q17" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="9:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="N18" s="27" t="s">
+      <c r="N18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="28" t="s">
+      <c r="O18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="30" t="s">
+      <c r="P18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="30" t="s">
+      <c r="Q18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="30" t="s">
+      <c r="R18" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="9:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="9:36" x14ac:dyDescent="0.25">
-      <c r="U24" s="16" t="s">
+      <c r="U24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="16" t="s">
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="16" t="s">
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="16" t="s">
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="18"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="35"/>
     </row>
     <row r="25" spans="9:36" x14ac:dyDescent="0.25">
       <c r="N25" t="s">
@@ -7385,38 +7501,38 @@
       <c r="R25">
         <v>3</v>
       </c>
-      <c r="U25" s="13"/>
-      <c r="V25" s="11" t="s">
+      <c r="U25" s="12"/>
+      <c r="V25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W25" s="11" t="s">
+      <c r="W25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="11" t="s">
+      <c r="X25" s="11"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AA25" s="11" t="s">
+      <c r="AA25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="11" t="s">
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AE25" s="11" t="s">
+      <c r="AE25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="11" t="s">
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AI25" s="11" t="s">
+      <c r="AI25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AJ25" s="12"/>
+      <c r="AJ25" s="11"/>
     </row>
     <row r="26" spans="9:36" x14ac:dyDescent="0.25">
       <c r="I26" s="1" t="s">
@@ -7446,38 +7562,38 @@
       <c r="R26">
         <v>0.66758241758241754</v>
       </c>
-      <c r="U26" s="13"/>
-      <c r="V26" s="21">
-        <v>0.12692307692307692</v>
-      </c>
-      <c r="W26" s="21">
-        <v>3.0769230769230764E-2</v>
-      </c>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="21">
-        <v>0.24560439560439568</v>
-      </c>
-      <c r="AA26" s="21">
-        <v>-3.8461538461538464E-2</v>
-      </c>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="21">
-        <v>0.48241758241758248</v>
-      </c>
-      <c r="AE26" s="21">
-        <v>-4.6153846153846198E-2</v>
-      </c>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="21">
-        <v>0.66758241758241765</v>
-      </c>
-      <c r="AI26" s="21">
-        <v>-0.14615384615384608</v>
-      </c>
-      <c r="AJ26" s="20"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="17">
+        <v>-0.12692307692307692</v>
+      </c>
+      <c r="W26" s="17">
+        <v>-3.0769230769230764E-2</v>
+      </c>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="17">
+        <v>-0.24560439560439568</v>
+      </c>
+      <c r="AA26" s="17">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="17">
+        <v>-0.48241758241758248</v>
+      </c>
+      <c r="AE26" s="17">
+        <v>4.6153846153846198E-2</v>
+      </c>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="17">
+        <v>-0.66758241758241765</v>
+      </c>
+      <c r="AI26" s="17">
+        <v>0.14615384615384608</v>
+      </c>
+      <c r="AJ26" s="16"/>
     </row>
     <row r="27" spans="9:36" x14ac:dyDescent="0.25">
       <c r="I27" s="1">
@@ -7507,52 +7623,52 @@
       <c r="R27">
         <v>3.9859316507668154</v>
       </c>
-      <c r="U27" s="13" t="s">
+      <c r="U27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="V27" s="21">
+      <c r="V27" s="17">
         <v>4.2269076919160906E-3</v>
       </c>
-      <c r="W27" s="21">
+      <c r="W27" s="17">
         <v>1.5815640388669432E-2</v>
       </c>
-      <c r="X27" s="22" t="s">
+      <c r="X27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Y27" s="23" t="s">
+      <c r="Y27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z27" s="17">
         <v>4.0137592557365192E-3</v>
       </c>
-      <c r="AA27" s="21">
+      <c r="AA27" s="17">
         <v>1.5018111967958823E-2</v>
       </c>
-      <c r="AB27" s="22" t="s">
+      <c r="AB27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AC27" s="23" t="s">
+      <c r="AC27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AD27" s="21">
+      <c r="AD27" s="17">
         <v>6.9263268777873853E-3</v>
       </c>
-      <c r="AE27" s="21">
+      <c r="AE27" s="17">
         <v>2.5915942125484061E-2</v>
       </c>
-      <c r="AF27" s="22" t="s">
+      <c r="AF27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AG27" s="23" t="s">
+      <c r="AG27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AH27" s="21">
+      <c r="AH27" s="17">
         <v>6.3625070943341593E-3</v>
       </c>
-      <c r="AI27" s="21">
+      <c r="AI27" s="17">
         <v>2.3806321667917015E-2</v>
       </c>
-      <c r="AJ27" s="20" t="s">
+      <c r="AJ27" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7569,46 +7685,46 @@
       <c r="L28" s="5">
         <v>4.3992875256611539</v>
       </c>
-      <c r="U28" s="13" t="s">
+      <c r="U28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="V28" s="21">
+      <c r="V28" s="17">
         <v>0.98794712286158626</v>
       </c>
-      <c r="W28" s="21">
+      <c r="W28" s="17">
         <v>5.7024102375646854E-2</v>
       </c>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="23" t="s">
+      <c r="X28" s="18"/>
+      <c r="Y28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Z28" s="21">
+      <c r="Z28" s="17">
         <v>0.99707079981636371</v>
       </c>
-      <c r="AA28" s="21">
+      <c r="AA28" s="17">
         <v>5.4148572761134939E-2</v>
       </c>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="23" t="s">
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AD28" s="21">
+      <c r="AD28" s="17">
         <v>0.9977376034127502</v>
       </c>
-      <c r="AE28" s="21">
+      <c r="AE28" s="17">
         <v>9.344125818538998E-2</v>
       </c>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="23" t="s">
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AH28" s="21">
+      <c r="AH28" s="17">
         <v>0.99900182716383568</v>
       </c>
-      <c r="AI28" s="21">
+      <c r="AI28" s="17">
         <v>8.5834913453864195E-2</v>
       </c>
-      <c r="AJ28" s="20"/>
+      <c r="AJ28" s="16"/>
     </row>
     <row r="29" spans="9:36" x14ac:dyDescent="0.25">
       <c r="I29" s="1">
@@ -7623,22 +7739,22 @@
       <c r="L29" s="5">
         <v>2.1602765366501635</v>
       </c>
-      <c r="U29" s="13"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="20"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="16"/>
     </row>
     <row r="30" spans="9:36" x14ac:dyDescent="0.25">
       <c r="I30" s="1">
@@ -7653,176 +7769,144 @@
       <c r="L30" s="5">
         <v>1.3286438835889385</v>
       </c>
-      <c r="U30" s="13" t="s">
+      <c r="U30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="V30" s="21">
+      <c r="V30" s="17">
         <v>-6</v>
       </c>
-      <c r="W30" s="21">
-        <v>-0.73076923076923073</v>
-      </c>
-      <c r="X30" s="22" t="s">
+      <c r="W30" s="17">
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="X30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Y30" s="23" t="s">
+      <c r="Y30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Z30" s="21">
+      <c r="Z30" s="17">
         <v>-6</v>
       </c>
-      <c r="AA30" s="21">
-        <v>-1.5120879120879127</v>
-      </c>
-      <c r="AB30" s="22" t="s">
+      <c r="AA30" s="17">
+        <v>1.5120879120879127</v>
+      </c>
+      <c r="AB30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC30" s="23" t="s">
+      <c r="AC30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AD30" s="21">
+      <c r="AD30" s="17">
         <v>-6</v>
       </c>
-      <c r="AE30" s="21">
-        <v>-2.9406593406593409</v>
-      </c>
-      <c r="AF30" s="22" t="s">
+      <c r="AE30" s="17">
+        <v>2.9406593406593409</v>
+      </c>
+      <c r="AF30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AG30" s="23" t="s">
+      <c r="AG30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AH30" s="21">
+      <c r="AH30" s="17">
         <v>-6</v>
       </c>
-      <c r="AI30" s="21">
-        <v>-4.1516483516483511</v>
-      </c>
-      <c r="AJ30" s="20" t="s">
+      <c r="AI30" s="17">
+        <v>4.1516483516483511</v>
+      </c>
+      <c r="AJ30" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="9:36" x14ac:dyDescent="0.25">
-      <c r="U31" s="13" t="s">
+      <c r="U31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V31" s="21">
+      <c r="V31" s="17">
         <v>6</v>
       </c>
-      <c r="W31" s="21">
-        <v>0.79230769230769227</v>
-      </c>
-      <c r="X31" s="22" t="s">
+      <c r="W31" s="17">
+        <v>-0.79230769230769227</v>
+      </c>
+      <c r="X31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Y31" s="23" t="s">
+      <c r="Y31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Z31" s="21">
+      <c r="Z31" s="17">
         <v>6</v>
       </c>
-      <c r="AA31" s="21">
-        <v>1.4351648351648356</v>
-      </c>
-      <c r="AB31" s="22" t="s">
+      <c r="AA31" s="17">
+        <v>-1.4351648351648356</v>
+      </c>
+      <c r="AB31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AC31" s="23" t="s">
+      <c r="AC31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AD31" s="21">
+      <c r="AD31" s="17">
         <v>6</v>
       </c>
-      <c r="AE31" s="21">
-        <v>2.8483516483516489</v>
-      </c>
-      <c r="AF31" s="22" t="s">
+      <c r="AE31" s="17">
+        <v>-2.8483516483516489</v>
+      </c>
+      <c r="AF31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AG31" s="23" t="s">
+      <c r="AG31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AH31" s="21">
+      <c r="AH31" s="17">
         <v>6</v>
       </c>
-      <c r="AI31" s="21">
-        <v>3.8593406593406594</v>
-      </c>
-      <c r="AJ31" s="20" t="s">
+      <c r="AI31" s="17">
+        <v>-3.8593406593406594</v>
+      </c>
+      <c r="AJ31" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="9:36" x14ac:dyDescent="0.25">
-      <c r="U32" s="13"/>
-      <c r="V32" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="W32" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA32" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE32" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="23"/>
-      <c r="AH32" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI32" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ32" s="14"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="13"/>
     </row>
     <row r="33" spans="9:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="24">
-        <v>0.126923076923077</v>
-      </c>
-      <c r="W33" s="24">
-        <v>3.0769230769230771E-2</v>
-      </c>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="24">
-        <v>0.2456043956043957</v>
-      </c>
-      <c r="AA33" s="24">
-        <v>-3.8461538461538547E-2</v>
-      </c>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="24">
-        <v>0.48241758241758248</v>
-      </c>
-      <c r="AE33" s="24">
-        <v>-4.615384615384599E-2</v>
-      </c>
-      <c r="AF33" s="25"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="24">
-        <v>0.66758241758241754</v>
-      </c>
-      <c r="AI33" s="24">
-        <v>-0.14615384615384563</v>
-      </c>
-      <c r="AJ33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="14"/>
     </row>
     <row r="34" spans="9:36" x14ac:dyDescent="0.25">
       <c r="I34" s="1">
@@ -7847,6 +7931,22 @@
       <c r="J36" s="5">
         <v>2.1602765366501635</v>
       </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
     </row>
     <row r="37" spans="9:36" x14ac:dyDescent="0.25">
       <c r="I37" s="1">
@@ -7855,12 +7955,135 @@
       <c r="J37" s="5">
         <v>1.3286438835889385</v>
       </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+    </row>
+    <row r="38" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+    </row>
+    <row r="39" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+    </row>
+    <row r="40" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+    </row>
+    <row r="41" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+    </row>
+    <row r="42" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+    </row>
+    <row r="43" spans="9:36" x14ac:dyDescent="0.25">
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="U24:X24"/>
     <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AF24"/>
     <mergeCell ref="AG24:AJ24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7874,7 +8097,7 @@
   <dimension ref="B1:S18"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N3" sqref="N3:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7886,13 +8109,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
       <c r="L1" t="s">
         <v>1</v>
       </c>
@@ -7986,28 +8209,28 @@
         <v>-6</v>
       </c>
       <c r="N3" s="1">
-        <f>$D3-E3</f>
-        <v>-0.69999999999999973</v>
+        <f>-($D3-E3)</f>
+        <v>0.69999999999999973</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:S15" si="0">$D3-F3</f>
-        <v>-1.5</v>
+        <f t="shared" ref="O3:S3" si="0">-($D3-F3)</f>
+        <v>1.5</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>-2.9</v>
+        <v>2.9</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="0"/>
-        <v>-4.3999999999999995</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" si="0"/>
-        <v>-4.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -8045,28 +8268,28 @@
         <v>-5</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N15" si="1">$D4-E4</f>
-        <v>-0.60000000000000009</v>
+        <f t="shared" ref="N4:N15" si="1">-($D4-E4)</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.2000000000000002</v>
+        <f t="shared" ref="O4:O15" si="2">-($D4-F4)</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.4000000000000004</v>
+        <f t="shared" ref="P4:P15" si="3">-($D4-G4)</f>
+        <v>2.4000000000000004</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <f t="shared" ref="Q4:Q15" si="4">-($D4-H4)</f>
+        <v>3.5</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.6</v>
+        <f t="shared" ref="R4:R15" si="5">-($D4-I4)</f>
+        <v>3.6</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.9</v>
+        <f t="shared" ref="S4:S15" si="6">-($D4-J4)</f>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -8104,28 +8327,28 @@
         <v>-4</v>
       </c>
       <c r="N5" s="1">
-        <f>$D5-E5</f>
-        <v>-0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.1000000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="0"/>
-        <v>-2</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.9</v>
+        <f t="shared" si="4"/>
+        <v>2.9</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="0"/>
-        <v>-3</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.1</v>
+        <f t="shared" si="6"/>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -8164,27 +8387,27 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" si="1"/>
-        <v>-0.29999999999999982</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.79999999999999982</v>
+        <f t="shared" si="2"/>
+        <v>0.79999999999999982</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.4999999999999998</v>
+        <f t="shared" si="3"/>
+        <v>1.4999999999999998</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.0999999999999996</v>
+        <f t="shared" si="4"/>
+        <v>2.0999999999999996</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.1999999999999997</v>
+        <f t="shared" si="5"/>
+        <v>2.1999999999999997</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.2999999999999998</v>
+        <f t="shared" si="6"/>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -8222,28 +8445,28 @@
         <v>-2</v>
       </c>
       <c r="N7" s="1">
-        <f>$D7-E7</f>
-        <v>-0.20000000000000018</v>
+        <f t="shared" si="1"/>
+        <v>0.20000000000000018</v>
       </c>
       <c r="O7" s="1">
-        <f>$D7-F7</f>
-        <v>-0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.4000000000000001</v>
+        <f t="shared" si="4"/>
+        <v>1.4000000000000001</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <f t="shared" si="5"/>
+        <v>1.5</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.6</v>
+        <f t="shared" si="6"/>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -8282,27 +8505,27 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" si="1"/>
-        <v>-9.9999999999999978E-2</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.30000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.7</v>
+        <f t="shared" si="4"/>
+        <v>0.7</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.7</v>
+        <f t="shared" si="5"/>
+        <v>0.7</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.8</v>
+        <f t="shared" si="6"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
@@ -8344,23 +8567,23 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8403,24 +8626,24 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>-0.1</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="3"/>
+        <v>-0.2</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" si="4"/>
+        <v>-0.4</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" si="5"/>
+        <v>-0.4</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -8459,27 +8682,27 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="4"/>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <f t="shared" si="5"/>
+        <v>-1.2000000000000002</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
+        <f t="shared" si="6"/>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -8518,27 +8741,27 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" si="1"/>
-        <v>0.39999999999999991</v>
+        <v>-0.39999999999999991</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
+        <f t="shared" si="2"/>
+        <v>-0.7</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
+        <f t="shared" si="3"/>
+        <v>-1.4</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
+        <f t="shared" si="4"/>
+        <v>-1.8</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>-2</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <f t="shared" si="6"/>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
@@ -8577,27 +8800,27 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000002</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>-2</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
+        <f t="shared" si="5"/>
+        <v>-2.8000000000000003</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1</v>
+        <f t="shared" si="6"/>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
@@ -8636,27 +8859,27 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="1"/>
-        <v>0.69999999999999973</v>
+        <v>-0.69999999999999973</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1999999999999997</v>
+        <f t="shared" si="2"/>
+        <v>-1.1999999999999997</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f t="shared" si="3"/>
+        <v>-2.4</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1999999999999997</v>
+        <f t="shared" si="4"/>
+        <v>-3.1999999999999997</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
+        <f t="shared" si="5"/>
+        <v>-3.5</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9</v>
+        <f t="shared" si="6"/>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -8695,27 +8918,27 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="1"/>
-        <v>0.79999999999999982</v>
+        <v>-0.79999999999999982</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
+        <f t="shared" si="2"/>
+        <v>-1.4</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9</v>
+        <f t="shared" si="3"/>
+        <v>-2.9</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9</v>
+        <f t="shared" si="4"/>
+        <v>-3.9</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3</v>
+        <f t="shared" si="5"/>
+        <v>-4.3</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
+        <f t="shared" si="6"/>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
